--- a/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000094456707685</v>
+        <v>1.031816204290522</v>
       </c>
       <c r="D2">
-        <v>1.018906442021461</v>
+        <v>1.04997938423496</v>
       </c>
       <c r="E2">
-        <v>1.005958321860633</v>
+        <v>1.043774775383148</v>
       </c>
       <c r="F2">
-        <v>1.011891674335732</v>
+        <v>1.055652904345759</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045801931450118</v>
+        <v>1.063785934974491</v>
       </c>
       <c r="J2">
-        <v>1.022272342958843</v>
+        <v>1.053085226797209</v>
       </c>
       <c r="K2">
-        <v>1.030108516956663</v>
+        <v>1.060783718742474</v>
       </c>
       <c r="L2">
-        <v>1.017335267257282</v>
+        <v>1.054656170926835</v>
       </c>
       <c r="M2">
-        <v>1.023187788383376</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.066387759351089</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0088271772839</v>
+        <v>1.038785118227703</v>
       </c>
       <c r="D3">
-        <v>1.025762469829355</v>
+        <v>1.05550125323684</v>
       </c>
       <c r="E3">
-        <v>1.01362459018621</v>
+        <v>1.049668777869969</v>
       </c>
       <c r="F3">
-        <v>1.020378154819529</v>
+        <v>1.06166220951874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049277977463294</v>
+        <v>1.066254200261376</v>
       </c>
       <c r="J3">
-        <v>1.029080063240971</v>
+        <v>1.058271541212103</v>
       </c>
       <c r="K3">
-        <v>1.036075994169441</v>
+        <v>1.065470019346419</v>
       </c>
       <c r="L3">
-        <v>1.024086060055468</v>
+        <v>1.059703260152708</v>
       </c>
       <c r="M3">
-        <v>1.030756767427194</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.071562522406031</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014274251018693</v>
+        <v>1.043172240036965</v>
       </c>
       <c r="D4">
-        <v>1.030041413535217</v>
+        <v>1.05897887807676</v>
       </c>
       <c r="E4">
-        <v>1.018407194757876</v>
+        <v>1.053384132471417</v>
       </c>
       <c r="F4">
-        <v>1.025679017511769</v>
+        <v>1.06544978677181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051431120445359</v>
+        <v>1.067793926308954</v>
       </c>
       <c r="J4">
-        <v>1.033319736234401</v>
+        <v>1.061532550766199</v>
       </c>
       <c r="K4">
-        <v>1.039790296638612</v>
+        <v>1.068414009326299</v>
       </c>
       <c r="L4">
-        <v>1.028288423445873</v>
+        <v>1.062878278766662</v>
       </c>
       <c r="M4">
-        <v>1.035477091512871</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.074817604255858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01651871102495</v>
+        <v>1.044988817985793</v>
       </c>
       <c r="D5">
-        <v>1.031805006847758</v>
+        <v>1.06041912092216</v>
       </c>
       <c r="E5">
-        <v>1.020377948889856</v>
+        <v>1.05492365374335</v>
       </c>
       <c r="F5">
-        <v>1.027864922088856</v>
+        <v>1.067019118864583</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052314641351721</v>
+        <v>1.068428035800544</v>
       </c>
       <c r="J5">
-        <v>1.035065020861678</v>
+        <v>1.062881841819961</v>
       </c>
       <c r="K5">
-        <v>1.041318779970695</v>
+        <v>1.069631479443033</v>
       </c>
       <c r="L5">
-        <v>1.030017902379405</v>
+        <v>1.064192352249841</v>
       </c>
       <c r="M5">
-        <v>1.037421813228889</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.076164746766255</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016892986384637</v>
+        <v>1.04529224246448</v>
       </c>
       <c r="D6">
-        <v>1.032099118616419</v>
+        <v>1.060659698694294</v>
       </c>
       <c r="E6">
-        <v>1.020706585120214</v>
+        <v>1.055180863872767</v>
       </c>
       <c r="F6">
-        <v>1.028229530292142</v>
+        <v>1.067281302561301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052461754746203</v>
+        <v>1.068533747318871</v>
       </c>
       <c r="J6">
-        <v>1.035355956208902</v>
+        <v>1.063107154762747</v>
       </c>
       <c r="K6">
-        <v>1.04157354302708</v>
+        <v>1.069834741364186</v>
       </c>
       <c r="L6">
-        <v>1.030306176613967</v>
+        <v>1.064411805401865</v>
       </c>
       <c r="M6">
-        <v>1.037746087011558</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.076389718364126</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014304416304177</v>
+        <v>1.043196620456086</v>
       </c>
       <c r="D7">
-        <v>1.030065114371183</v>
+        <v>1.058998206758144</v>
       </c>
       <c r="E7">
-        <v>1.018433681230772</v>
+        <v>1.053404790232169</v>
       </c>
       <c r="F7">
-        <v>1.025708389219512</v>
+        <v>1.0654708450086</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051443009530963</v>
+        <v>1.067802450443656</v>
       </c>
       <c r="J7">
-        <v>1.033343199352056</v>
+        <v>1.061550663712366</v>
       </c>
       <c r="K7">
-        <v>1.039810847276813</v>
+        <v>1.068430355297117</v>
       </c>
       <c r="L7">
-        <v>1.028311675850117</v>
+        <v>1.062895917528153</v>
       </c>
       <c r="M7">
-        <v>1.035503229562633</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.074835687177161</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003089940108727</v>
+        <v>1.034197626438565</v>
       </c>
       <c r="D8">
-        <v>1.021257577398193</v>
+        <v>1.051865957807803</v>
       </c>
       <c r="E8">
-        <v>1.008587779024948</v>
+        <v>1.04578779219858</v>
       </c>
       <c r="F8">
-        <v>1.014801075190292</v>
+        <v>1.05770539451476</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046997428638586</v>
+        <v>1.064632328818105</v>
       </c>
       <c r="J8">
-        <v>1.024608887894475</v>
+        <v>1.054858286924857</v>
       </c>
       <c r="K8">
-        <v>1.032157098886752</v>
+        <v>1.062386378916282</v>
       </c>
       <c r="L8">
-        <v>1.019652666483857</v>
+        <v>1.056381300861266</v>
       </c>
       <c r="M8">
-        <v>1.025784220527138</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.068156578418577</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9816026028642973</v>
+        <v>1.017330499038384</v>
       </c>
       <c r="D9">
-        <v>1.004409428453395</v>
+        <v>1.038514027746452</v>
       </c>
       <c r="E9">
-        <v>0.9897335740890442</v>
+        <v>1.031554718377894</v>
       </c>
       <c r="F9">
-        <v>0.9939675375299408</v>
+        <v>1.043191495934588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038358888137291</v>
+        <v>1.058579357263322</v>
       </c>
       <c r="J9">
-        <v>1.007822176652143</v>
+        <v>1.042285773252375</v>
       </c>
       <c r="K9">
-        <v>1.017431368572651</v>
+        <v>1.051011686068201</v>
       </c>
       <c r="L9">
-        <v>1.002995442347858</v>
+        <v>1.044155777514801</v>
       </c>
       <c r="M9">
-        <v>1.007159251376801</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.05562064025735</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9658435553024993</v>
+        <v>1.005292460901362</v>
       </c>
       <c r="D10">
-        <v>0.9920832854877391</v>
+        <v>1.02900289747088</v>
       </c>
       <c r="E10">
-        <v>0.9759212680186156</v>
+        <v>1.021432641104661</v>
       </c>
       <c r="F10">
-        <v>0.9787402209877554</v>
+        <v>1.032867794118454</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0319459195176</v>
+        <v>1.054188086381927</v>
       </c>
       <c r="J10">
-        <v>0.9954810954777097</v>
+        <v>1.033297659805081</v>
       </c>
       <c r="K10">
-        <v>1.006596965120644</v>
+        <v>1.042867523081506</v>
       </c>
       <c r="L10">
-        <v>0.9907393201940047</v>
+        <v>1.035425412939977</v>
       </c>
       <c r="M10">
-        <v>0.9935042379861592</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.046667929027935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586033279891955</v>
+        <v>0.9998622371808126</v>
       </c>
       <c r="D11">
-        <v>0.9864306630025551</v>
+        <v>1.024718608267877</v>
       </c>
       <c r="E11">
-        <v>0.9695813908483889</v>
+        <v>1.016876837685915</v>
       </c>
       <c r="F11">
-        <v>0.9717587702979236</v>
+        <v>1.028220892728088</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028982621668353</v>
+        <v>1.052191383094628</v>
       </c>
       <c r="J11">
-        <v>0.9898057536268614</v>
+        <v>1.029240748370694</v>
       </c>
       <c r="K11">
-        <v>1.001613095741923</v>
+        <v>1.039188952772077</v>
       </c>
       <c r="L11">
-        <v>0.9851006978489725</v>
+        <v>1.031487348556791</v>
       </c>
       <c r="M11">
-        <v>0.9872336778349193</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.042629531195312</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9558434650403165</v>
+        <v>0.9978096443902829</v>
       </c>
       <c r="D12">
-        <v>0.9842778547680626</v>
+        <v>1.023100252609675</v>
       </c>
       <c r="E12">
-        <v>0.9671658530985388</v>
+        <v>1.015156447315549</v>
       </c>
       <c r="F12">
-        <v>0.9690999345308604</v>
+        <v>1.026466058691216</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027850654341222</v>
+        <v>1.05143436100102</v>
       </c>
       <c r="J12">
-        <v>0.9876417456199773</v>
+        <v>1.027706994157548</v>
       </c>
       <c r="K12">
-        <v>0.9997125948345897</v>
+        <v>1.037797877923612</v>
       </c>
       <c r="L12">
-        <v>0.9829503486032729</v>
+        <v>1.029998922549721</v>
       </c>
       <c r="M12">
-        <v>0.9848440808458719</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.041103189034968</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.956438800013476</v>
+        <v>0.9982515916312995</v>
       </c>
       <c r="D13">
-        <v>0.9847421502905402</v>
+        <v>1.023448651868313</v>
       </c>
       <c r="E13">
-        <v>0.9676868581933775</v>
+        <v>1.015526789211333</v>
       </c>
       <c r="F13">
-        <v>0.9696733654794286</v>
+        <v>1.026843816903738</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028094938832822</v>
+        <v>1.051597457903881</v>
       </c>
       <c r="J13">
-        <v>0.9881085743038013</v>
+        <v>1.028037239545432</v>
       </c>
       <c r="K13">
-        <v>1.000122584453057</v>
+        <v>1.038097417350959</v>
       </c>
       <c r="L13">
-        <v>0.9834142459844347</v>
+        <v>1.030319389681073</v>
       </c>
       <c r="M13">
-        <v>0.9853595126319087</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.041431819288928</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9583766866877322</v>
+        <v>0.99969331251648</v>
       </c>
       <c r="D14">
-        <v>0.9862538332081517</v>
+        <v>1.024585397586759</v>
       </c>
       <c r="E14">
-        <v>0.9693830014646184</v>
+        <v>1.016735217739673</v>
       </c>
       <c r="F14">
-        <v>0.9715403758160136</v>
+        <v>1.028076438237504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028889711670167</v>
+        <v>1.052129127184689</v>
       </c>
       <c r="J14">
-        <v>0.9896280564541602</v>
+        <v>1.029114527916002</v>
       </c>
       <c r="K14">
-        <v>1.001457039098953</v>
+        <v>1.039074481156222</v>
       </c>
       <c r="L14">
-        <v>0.9849241291138718</v>
+        <v>1.031364850215924</v>
       </c>
       <c r="M14">
-        <v>0.987037428713897</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.042503912146252</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9595610752394894</v>
+        <v>1.00057680012401</v>
       </c>
       <c r="D15">
-        <v>0.9871779937415108</v>
+        <v>1.025282143586981</v>
       </c>
       <c r="E15">
-        <v>0.9704197974245932</v>
+        <v>1.017475968912011</v>
       </c>
       <c r="F15">
-        <v>0.972681765897367</v>
+        <v>1.028832013979146</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029375146890849</v>
+        <v>1.052454637790634</v>
       </c>
       <c r="J15">
-        <v>0.9905566458677544</v>
+        <v>1.029774659437044</v>
       </c>
       <c r="K15">
-        <v>1.002272536171274</v>
+        <v>1.039673152106782</v>
       </c>
       <c r="L15">
-        <v>0.9858468078697155</v>
+        <v>1.032005531389462</v>
       </c>
       <c r="M15">
-        <v>0.9880630202561523</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.043160915306762</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9663146445752999</v>
+        <v>1.005648024008679</v>
       </c>
       <c r="D16">
-        <v>0.9924513161201924</v>
+        <v>1.029283566091099</v>
       </c>
       <c r="E16">
-        <v>0.9763339163562316</v>
+        <v>1.021731171208074</v>
       </c>
       <c r="F16">
-        <v>0.9791947873327358</v>
+        <v>1.033172287192664</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032138390838328</v>
+        <v>1.054318507450557</v>
       </c>
       <c r="J16">
-        <v>0.995850265705266</v>
+        <v>1.033563257855865</v>
       </c>
       <c r="K16">
-        <v>1.006921132259354</v>
+        <v>1.043108300946844</v>
       </c>
       <c r="L16">
-        <v>0.9911060543888045</v>
+        <v>1.03568328391638</v>
       </c>
       <c r="M16">
-        <v>0.9939123124657675</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.046932370157515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.970434303023091</v>
+        <v>1.008768872667713</v>
       </c>
       <c r="D17">
-        <v>0.9956709288827494</v>
+        <v>1.031747756025684</v>
       </c>
       <c r="E17">
-        <v>0.9799432004655919</v>
+        <v>1.024352593934237</v>
       </c>
       <c r="F17">
-        <v>0.983171595261662</v>
+        <v>1.035846032886515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033819661782803</v>
+        <v>1.055461458969329</v>
       </c>
       <c r="J17">
-        <v>0.9990780534478181</v>
+        <v>1.035894197207718</v>
       </c>
       <c r="K17">
-        <v>1.009755290562253</v>
+        <v>1.045221124831458</v>
       </c>
       <c r="L17">
-        <v>0.9943122809541025</v>
+        <v>1.037946694636556</v>
       </c>
       <c r="M17">
-        <v>0.997481264558805</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.049253446057711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9727976544684993</v>
+        <v>1.010568418759043</v>
       </c>
       <c r="D18">
-        <v>0.9975188919860516</v>
+        <v>1.033169219236484</v>
       </c>
       <c r="E18">
-        <v>0.9820142996298944</v>
+        <v>1.025865105779286</v>
       </c>
       <c r="F18">
-        <v>0.9854543297247066</v>
+        <v>1.037388700460866</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034782577764631</v>
+        <v>1.056119009338897</v>
       </c>
       <c r="J18">
-        <v>1.000929241496675</v>
+        <v>1.037238024831495</v>
       </c>
       <c r="K18">
-        <v>1.01138059046175</v>
+        <v>1.04643895925267</v>
       </c>
       <c r="L18">
-        <v>0.9961508837530445</v>
+        <v>1.039251825473947</v>
       </c>
       <c r="M18">
-        <v>0.9995289545548653</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.050591823489933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9735970023157041</v>
+        <v>1.01117857234921</v>
       </c>
       <c r="D19">
-        <v>0.9981440739033401</v>
+        <v>1.03365127046137</v>
       </c>
       <c r="E19">
-        <v>0.9827148850564092</v>
+        <v>1.026378093694528</v>
       </c>
       <c r="F19">
-        <v>0.9862266312927508</v>
+        <v>1.03791191009739</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035107987786948</v>
+        <v>1.056341701023195</v>
       </c>
       <c r="J19">
-        <v>1.001555269945213</v>
+        <v>1.037693618892901</v>
       </c>
       <c r="K19">
-        <v>1.011930204230061</v>
+        <v>1.046851795581288</v>
       </c>
       <c r="L19">
-        <v>0.9967726186565463</v>
+        <v>1.039694339519324</v>
       </c>
       <c r="M19">
-        <v>1.000221577332186</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.051045608967941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9699964490754042</v>
+        <v>1.008436205395271</v>
       </c>
       <c r="D20">
-        <v>0.9953286347863514</v>
+        <v>1.031485026042411</v>
       </c>
       <c r="E20">
-        <v>0.9795595337125264</v>
+        <v>1.024073063820816</v>
       </c>
       <c r="F20">
-        <v>0.9827487839194244</v>
+        <v>1.035560926846977</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033641134045754</v>
+        <v>1.055339780969082</v>
       </c>
       <c r="J20">
-        <v>0.9987350439987666</v>
+        <v>1.035645754675157</v>
       </c>
       <c r="K20">
-        <v>1.009454124885982</v>
+        <v>1.044995955391695</v>
       </c>
       <c r="L20">
-        <v>0.9939715855546286</v>
+        <v>1.037705425108317</v>
       </c>
       <c r="M20">
-        <v>0.9971019129820168</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.049006030054161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9578080453091482</v>
+        <v>0.9992697681382178</v>
       </c>
       <c r="D21">
-        <v>0.9858101999533579</v>
+        <v>1.024251416768469</v>
       </c>
       <c r="E21">
-        <v>0.9688852628638606</v>
+        <v>1.01638016192214</v>
       </c>
       <c r="F21">
-        <v>0.9709924647084042</v>
+        <v>1.027714275273085</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028656563111709</v>
+        <v>1.051972996790183</v>
       </c>
       <c r="J21">
-        <v>0.9891822056218231</v>
+        <v>1.028798051804202</v>
       </c>
       <c r="K21">
-        <v>1.001065483196585</v>
+        <v>1.038787457627982</v>
       </c>
       <c r="L21">
-        <v>0.9844811041346825</v>
+        <v>1.031057713121947</v>
       </c>
       <c r="M21">
-        <v>0.9865450521392062</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.042188950710336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9497316112382533</v>
+        <v>0.9932990151487417</v>
       </c>
       <c r="D22">
-        <v>0.979514242997367</v>
+        <v>1.01954606445516</v>
       </c>
       <c r="E22">
-        <v>0.9618189023434192</v>
+        <v>1.011379114758306</v>
       </c>
       <c r="F22">
-        <v>0.9632164915759777</v>
+        <v>1.022613033809598</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025339589472293</v>
+        <v>1.049766701317516</v>
       </c>
       <c r="J22">
-        <v>0.9828484352565097</v>
+        <v>1.024336164925425</v>
       </c>
       <c r="K22">
-        <v>0.9955027513030191</v>
+        <v>1.034740006276225</v>
       </c>
       <c r="L22">
-        <v>0.9781866743072453</v>
+        <v>1.02672847008431</v>
       </c>
       <c r="M22">
-        <v>0.9795536354814679</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.037749449320147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9540553005337965</v>
+        <v>0.9964849359350082</v>
       </c>
       <c r="D23">
-        <v>0.9828835877254072</v>
+        <v>1.022056120463903</v>
       </c>
       <c r="E23">
-        <v>0.9656011330289782</v>
+        <v>1.01404662956031</v>
       </c>
       <c r="F23">
-        <v>0.9673779294969075</v>
+        <v>1.025334010728463</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027116574770846</v>
+        <v>1.05094516267272</v>
       </c>
       <c r="J23">
-        <v>0.9862394841550616</v>
+        <v>1.02671707471033</v>
       </c>
       <c r="K23">
-        <v>0.9984810496698293</v>
+        <v>1.036899950893542</v>
       </c>
       <c r="L23">
-        <v>0.9815568430438644</v>
+        <v>1.029038373541542</v>
       </c>
       <c r="M23">
-        <v>0.9832960268661555</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.040118174155866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9701944181448537</v>
+        <v>1.008586587457974</v>
       </c>
       <c r="D24">
-        <v>0.9954833949843772</v>
+        <v>1.031603791263891</v>
       </c>
       <c r="E24">
-        <v>0.9797330012014102</v>
+        <v>1.024199422335584</v>
       </c>
       <c r="F24">
-        <v>0.9829399475679627</v>
+        <v>1.03568980600302</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033721857631247</v>
+        <v>1.055394790106894</v>
       </c>
       <c r="J24">
-        <v>0.9988901321799502</v>
+        <v>1.035758063743475</v>
       </c>
       <c r="K24">
-        <v>1.009590294262853</v>
+        <v>1.045097744565913</v>
       </c>
       <c r="L24">
-        <v>0.9941256281461919</v>
+        <v>1.037814490874835</v>
       </c>
       <c r="M24">
-        <v>0.9972734302715659</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.04911787434613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9873878083073075</v>
+        <v>1.021821774677692</v>
       </c>
       <c r="D25">
-        <v>1.008941363671353</v>
+        <v>1.042066740480957</v>
       </c>
       <c r="E25">
-        <v>0.9948078528492802</v>
+        <v>1.035338943839717</v>
       </c>
       <c r="F25">
-        <v>0.9995685118504207</v>
+        <v>1.047050744074521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04069813377777</v>
+        <v>1.060203590251026</v>
       </c>
       <c r="J25">
-        <v>1.012347207706952</v>
+        <v>1.045636423456906</v>
       </c>
       <c r="K25">
-        <v>1.021402444249244</v>
+        <v>1.054045325902364</v>
       </c>
       <c r="L25">
-        <v>1.007487308514154</v>
+        <v>1.047412363800717</v>
       </c>
       <c r="M25">
-        <v>1.012173529811541</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.058960066191389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031816204290522</v>
+        <v>1.02482848609172</v>
       </c>
       <c r="D2">
-        <v>1.04997938423496</v>
+        <v>1.0429115043071</v>
       </c>
       <c r="E2">
-        <v>1.043774775383148</v>
+        <v>1.037952685749181</v>
       </c>
       <c r="F2">
-        <v>1.055652904345759</v>
+        <v>1.048955910654334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063785934974491</v>
+        <v>1.055262828791848</v>
       </c>
       <c r="J2">
-        <v>1.053085226797209</v>
+        <v>1.046291119362725</v>
       </c>
       <c r="K2">
-        <v>1.060783718742474</v>
+        <v>1.053803712241188</v>
       </c>
       <c r="L2">
-        <v>1.054656170926835</v>
+        <v>1.048907437346921</v>
       </c>
       <c r="M2">
-        <v>1.066387759351089</v>
+        <v>1.059772878507227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038785118227703</v>
+        <v>1.028807918978234</v>
       </c>
       <c r="D3">
-        <v>1.05550125323684</v>
+        <v>1.045939535866973</v>
       </c>
       <c r="E3">
-        <v>1.049668777869969</v>
+        <v>1.041195404948261</v>
       </c>
       <c r="F3">
-        <v>1.06166220951874</v>
+        <v>1.05237614520221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066254200261376</v>
+        <v>1.056440901351933</v>
       </c>
       <c r="J3">
-        <v>1.058271541212103</v>
+        <v>1.048542912254781</v>
       </c>
       <c r="K3">
-        <v>1.065470019346419</v>
+        <v>1.056016510542728</v>
       </c>
       <c r="L3">
-        <v>1.059703260152708</v>
+        <v>1.051326979529883</v>
       </c>
       <c r="M3">
-        <v>1.071562522406031</v>
+        <v>1.062380011199742</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043172240036965</v>
+        <v>1.031337322596741</v>
       </c>
       <c r="D4">
-        <v>1.05897887807676</v>
+        <v>1.047867221278192</v>
       </c>
       <c r="E4">
-        <v>1.053384132471417</v>
+        <v>1.043261916201378</v>
       </c>
       <c r="F4">
-        <v>1.06544978677181</v>
+        <v>1.054555267595448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067793926308954</v>
+        <v>1.057182151991784</v>
       </c>
       <c r="J4">
-        <v>1.061532550766199</v>
+        <v>1.049972020812322</v>
       </c>
       <c r="K4">
-        <v>1.068414009326299</v>
+        <v>1.057420317676653</v>
       </c>
       <c r="L4">
-        <v>1.062878278766662</v>
+        <v>1.052864807584642</v>
       </c>
       <c r="M4">
-        <v>1.074817604255858</v>
+        <v>1.064036997014007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044988817985793</v>
+        <v>1.03239011169105</v>
       </c>
       <c r="D5">
-        <v>1.06041912092216</v>
+        <v>1.048670246351932</v>
       </c>
       <c r="E5">
-        <v>1.05492365374335</v>
+        <v>1.044123296237606</v>
       </c>
       <c r="F5">
-        <v>1.067019118864583</v>
+        <v>1.055463464234299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068428035800544</v>
+        <v>1.05748883336771</v>
       </c>
       <c r="J5">
-        <v>1.062881841819961</v>
+        <v>1.050566295949763</v>
       </c>
       <c r="K5">
-        <v>1.069631479443033</v>
+        <v>1.058003932689705</v>
       </c>
       <c r="L5">
-        <v>1.064192352249841</v>
+        <v>1.053504834039592</v>
       </c>
       <c r="M5">
-        <v>1.076164746766255</v>
+        <v>1.064726596867001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04529224246448</v>
+        <v>1.032566269105017</v>
       </c>
       <c r="D6">
-        <v>1.060659698694294</v>
+        <v>1.048804651171067</v>
       </c>
       <c r="E6">
-        <v>1.055180863872767</v>
+        <v>1.044267499087723</v>
       </c>
       <c r="F6">
-        <v>1.067281302561301</v>
+        <v>1.055615497409887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068533747318871</v>
+        <v>1.057540039554083</v>
       </c>
       <c r="J6">
-        <v>1.063107154762747</v>
+        <v>1.050665699705212</v>
       </c>
       <c r="K6">
-        <v>1.069834741364186</v>
+        <v>1.058101544998691</v>
       </c>
       <c r="L6">
-        <v>1.064411805401865</v>
+        <v>1.053611922430745</v>
       </c>
       <c r="M6">
-        <v>1.076389718364126</v>
+        <v>1.064841978676477</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043196620456086</v>
+        <v>1.031351431124705</v>
       </c>
       <c r="D7">
-        <v>1.058998206758144</v>
+        <v>1.047877980047531</v>
       </c>
       <c r="E7">
-        <v>1.053404790232169</v>
+        <v>1.043273454722994</v>
       </c>
       <c r="F7">
-        <v>1.0654708450086</v>
+        <v>1.054567433727591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067802450443656</v>
+        <v>1.057186269169761</v>
       </c>
       <c r="J7">
-        <v>1.061550663712366</v>
+        <v>1.04997998695282</v>
       </c>
       <c r="K7">
-        <v>1.068430355297117</v>
+        <v>1.057428141476758</v>
       </c>
       <c r="L7">
-        <v>1.062895917528153</v>
+        <v>1.052873384872027</v>
       </c>
       <c r="M7">
-        <v>1.074835687177161</v>
+        <v>1.064046238732779</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034197626438565</v>
+        <v>1.026182992187182</v>
       </c>
       <c r="D8">
-        <v>1.051865957807803</v>
+        <v>1.043941521270017</v>
       </c>
       <c r="E8">
-        <v>1.04578779219858</v>
+        <v>1.039055285205542</v>
       </c>
       <c r="F8">
-        <v>1.05770539451476</v>
+        <v>1.050118977569677</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064632328818105</v>
+        <v>1.055665380285184</v>
       </c>
       <c r="J8">
-        <v>1.054858286924857</v>
+        <v>1.047058015375546</v>
       </c>
       <c r="K8">
-        <v>1.062386378916282</v>
+        <v>1.054557439998127</v>
       </c>
       <c r="L8">
-        <v>1.056381300861266</v>
+        <v>1.049730991230778</v>
       </c>
       <c r="M8">
-        <v>1.068156578418577</v>
+        <v>1.060660297942183</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017330499038384</v>
+        <v>1.016710921688553</v>
       </c>
       <c r="D9">
-        <v>1.038514027746452</v>
+        <v>1.036752971394987</v>
       </c>
       <c r="E9">
-        <v>1.031554718377894</v>
+        <v>1.031368949599594</v>
       </c>
       <c r="F9">
-        <v>1.043191495934588</v>
+        <v>1.042008920654035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058579357263322</v>
+        <v>1.052819665638735</v>
       </c>
       <c r="J9">
-        <v>1.042285773252375</v>
+        <v>1.041687067639438</v>
       </c>
       <c r="K9">
-        <v>1.051011686068201</v>
+        <v>1.049276628630979</v>
       </c>
       <c r="L9">
-        <v>1.044155777514801</v>
+        <v>1.043972793206179</v>
       </c>
       <c r="M9">
-        <v>1.05562064025735</v>
+        <v>1.054455313230565</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005292460901362</v>
+        <v>1.010127939065636</v>
       </c>
       <c r="D10">
-        <v>1.02900289747088</v>
+        <v>1.031777128391876</v>
       </c>
       <c r="E10">
-        <v>1.021432641104661</v>
+        <v>1.026059340134515</v>
       </c>
       <c r="F10">
-        <v>1.032867794118454</v>
+        <v>1.036403795763578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054188086381927</v>
+        <v>1.050804389608259</v>
       </c>
       <c r="J10">
-        <v>1.033297659805081</v>
+        <v>1.037945408992932</v>
       </c>
       <c r="K10">
-        <v>1.042867523081506</v>
+        <v>1.045595399412916</v>
       </c>
       <c r="L10">
-        <v>1.035425412939977</v>
+        <v>1.039973503210849</v>
       </c>
       <c r="M10">
-        <v>1.046667929027935</v>
+        <v>1.050145469998952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9998622371808126</v>
+        <v>1.007208297658969</v>
       </c>
       <c r="D11">
-        <v>1.024718608267877</v>
+        <v>1.029575685609563</v>
       </c>
       <c r="E11">
-        <v>1.016876837685915</v>
+        <v>1.023712687776313</v>
       </c>
       <c r="F11">
-        <v>1.028220892728088</v>
+        <v>1.033925857918257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052191383094628</v>
+        <v>1.049902133556797</v>
       </c>
       <c r="J11">
-        <v>1.029240748370694</v>
+        <v>1.036284247497909</v>
       </c>
       <c r="K11">
-        <v>1.039188952772077</v>
+        <v>1.043960600113327</v>
       </c>
       <c r="L11">
-        <v>1.031487348556791</v>
+        <v>1.038200856654387</v>
       </c>
       <c r="M11">
-        <v>1.042629531195312</v>
+        <v>1.0482351397139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9978096443902829</v>
+        <v>1.006112921296552</v>
       </c>
       <c r="D12">
-        <v>1.023100252609675</v>
+        <v>1.028750628847204</v>
       </c>
       <c r="E12">
-        <v>1.015156447315549</v>
+        <v>1.022833569673615</v>
       </c>
       <c r="F12">
-        <v>1.026466058691216</v>
+        <v>1.032997453943132</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05143436100102</v>
+        <v>1.049562398917201</v>
       </c>
       <c r="J12">
-        <v>1.027706994157548</v>
+        <v>1.035660805724784</v>
       </c>
       <c r="K12">
-        <v>1.037797877923612</v>
+        <v>1.043346990417451</v>
       </c>
       <c r="L12">
-        <v>1.029998922549721</v>
+        <v>1.037536010317598</v>
       </c>
       <c r="M12">
-        <v>1.041103189034968</v>
+        <v>1.04751865092997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9982515916312995</v>
+        <v>1.006348384463167</v>
       </c>
       <c r="D13">
-        <v>1.023448651868313</v>
+        <v>1.028927943624877</v>
       </c>
       <c r="E13">
-        <v>1.015526789211333</v>
+        <v>1.023022486753433</v>
       </c>
       <c r="F13">
-        <v>1.026843816903738</v>
+        <v>1.033196966917763</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051597457903881</v>
+        <v>1.049635483579158</v>
       </c>
       <c r="J13">
-        <v>1.028037239545432</v>
+        <v>1.035794830496295</v>
       </c>
       <c r="K13">
-        <v>1.038097417350959</v>
+        <v>1.043478904188133</v>
       </c>
       <c r="L13">
-        <v>1.030319389681073</v>
+        <v>1.037678916315812</v>
       </c>
       <c r="M13">
-        <v>1.041431819288928</v>
+        <v>1.047672657359973</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.99969331251648</v>
+        <v>1.007117978686025</v>
       </c>
       <c r="D14">
-        <v>1.024585397586759</v>
+        <v>1.029507637752958</v>
       </c>
       <c r="E14">
-        <v>1.016735217739673</v>
+        <v>1.023640173847637</v>
       </c>
       <c r="F14">
-        <v>1.028076438237504</v>
+        <v>1.033849280749429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052129127184689</v>
+        <v>1.04987414562318</v>
       </c>
       <c r="J14">
-        <v>1.029114527916002</v>
+        <v>1.036232845930664</v>
       </c>
       <c r="K14">
-        <v>1.039074481156222</v>
+        <v>1.043910010389371</v>
       </c>
       <c r="L14">
-        <v>1.031364850215924</v>
+        <v>1.038146032479085</v>
       </c>
       <c r="M14">
-        <v>1.042503912146252</v>
+        <v>1.048176057076808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00057680012401</v>
+        <v>1.007590692400621</v>
       </c>
       <c r="D15">
-        <v>1.025282143586981</v>
+        <v>1.029863824144739</v>
       </c>
       <c r="E15">
-        <v>1.017475968912011</v>
+        <v>1.024019751879275</v>
       </c>
       <c r="F15">
-        <v>1.028832013979146</v>
+        <v>1.034250123825484</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052454637790634</v>
+        <v>1.050020579611162</v>
       </c>
       <c r="J15">
-        <v>1.029774659437044</v>
+        <v>1.03650186418227</v>
       </c>
       <c r="K15">
-        <v>1.039673152106782</v>
+        <v>1.044174777260759</v>
       </c>
       <c r="L15">
-        <v>1.032005531389462</v>
+        <v>1.038432981296672</v>
       </c>
       <c r="M15">
-        <v>1.043160915306762</v>
+        <v>1.048485294503665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005648024008679</v>
+        <v>1.010320206767561</v>
       </c>
       <c r="D16">
-        <v>1.029283566091099</v>
+        <v>1.031922218066044</v>
       </c>
       <c r="E16">
-        <v>1.021731171208074</v>
+        <v>1.026214050667853</v>
       </c>
       <c r="F16">
-        <v>1.033172287192664</v>
+        <v>1.03656714745399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054318507450557</v>
+        <v>1.050863632925664</v>
       </c>
       <c r="J16">
-        <v>1.033563257855865</v>
+        <v>1.03805476975773</v>
       </c>
       <c r="K16">
-        <v>1.043108300946844</v>
+        <v>1.045703015617057</v>
       </c>
       <c r="L16">
-        <v>1.03568328391638</v>
+        <v>1.040090263967188</v>
       </c>
       <c r="M16">
-        <v>1.046932370157515</v>
+        <v>1.050271299180186</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008768872667713</v>
+        <v>1.012013497192638</v>
       </c>
       <c r="D17">
-        <v>1.031747756025684</v>
+        <v>1.033200638249041</v>
       </c>
       <c r="E17">
-        <v>1.024352593934237</v>
+        <v>1.027577522183557</v>
       </c>
       <c r="F17">
-        <v>1.035846032886515</v>
+        <v>1.038006696252638</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055461458969329</v>
+        <v>1.051384425686427</v>
       </c>
       <c r="J17">
-        <v>1.035894197207718</v>
+        <v>1.039017715834748</v>
       </c>
       <c r="K17">
-        <v>1.045221124831458</v>
+        <v>1.04665054826643</v>
       </c>
       <c r="L17">
-        <v>1.037946694636556</v>
+        <v>1.041118698743139</v>
       </c>
       <c r="M17">
-        <v>1.049253446057711</v>
+        <v>1.051379605477124</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010568418759043</v>
+        <v>1.012994526557916</v>
       </c>
       <c r="D18">
-        <v>1.033169219236484</v>
+        <v>1.033941818035927</v>
       </c>
       <c r="E18">
-        <v>1.025865105779286</v>
+        <v>1.028368246205652</v>
       </c>
       <c r="F18">
-        <v>1.037388700460866</v>
+        <v>1.038841475494282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056119009338897</v>
+        <v>1.051685346834945</v>
       </c>
       <c r="J18">
-        <v>1.037238024831495</v>
+        <v>1.039575448031727</v>
       </c>
       <c r="K18">
-        <v>1.04643895925267</v>
+        <v>1.047199308218877</v>
       </c>
       <c r="L18">
-        <v>1.039251825473947</v>
+        <v>1.041714636563632</v>
       </c>
       <c r="M18">
-        <v>1.050591823489933</v>
+        <v>1.052021822343736</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01117857234921</v>
+        <v>1.013327920960832</v>
       </c>
       <c r="D19">
-        <v>1.03365127046137</v>
+        <v>1.034193786606458</v>
       </c>
       <c r="E19">
-        <v>1.026378093694528</v>
+        <v>1.02863709771062</v>
       </c>
       <c r="F19">
-        <v>1.03791191009739</v>
+        <v>1.03912529513875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056341701023195</v>
+        <v>1.051787474298667</v>
       </c>
       <c r="J19">
-        <v>1.037693618892901</v>
+        <v>1.03976495979694</v>
       </c>
       <c r="K19">
-        <v>1.046851795581288</v>
+        <v>1.047385763449599</v>
       </c>
       <c r="L19">
-        <v>1.039694339519324</v>
+        <v>1.041917176817865</v>
       </c>
       <c r="M19">
-        <v>1.051045608967941</v>
+        <v>1.052240090733735</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008436205395271</v>
+        <v>1.011832513306503</v>
       </c>
       <c r="D20">
-        <v>1.031485026042411</v>
+        <v>1.033063943554676</v>
       </c>
       <c r="E20">
-        <v>1.024073063820816</v>
+        <v>1.027431709132838</v>
       </c>
       <c r="F20">
-        <v>1.035560926846977</v>
+        <v>1.037852754011835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055339780969082</v>
+        <v>1.051328845205177</v>
       </c>
       <c r="J20">
-        <v>1.035645754675157</v>
+        <v>1.038914809937682</v>
       </c>
       <c r="K20">
-        <v>1.044995955391695</v>
+        <v>1.046549294133249</v>
       </c>
       <c r="L20">
-        <v>1.037705425108317</v>
+        <v>1.041008765820355</v>
       </c>
       <c r="M20">
-        <v>1.049006030054161</v>
+        <v>1.051261135149392</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9992697681382178</v>
+        <v>1.006891657192569</v>
       </c>
       <c r="D21">
-        <v>1.024251416768469</v>
+        <v>1.029337137483127</v>
       </c>
       <c r="E21">
-        <v>1.01638016192214</v>
+        <v>1.023458489193859</v>
       </c>
       <c r="F21">
-        <v>1.027714275273085</v>
+        <v>1.033657413929915</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051972996790183</v>
+        <v>1.049803993695849</v>
       </c>
       <c r="J21">
-        <v>1.028798051804202</v>
+        <v>1.036104040419981</v>
       </c>
       <c r="K21">
-        <v>1.038787457627982</v>
+        <v>1.043783238283435</v>
       </c>
       <c r="L21">
-        <v>1.031057713121947</v>
+        <v>1.038008657403004</v>
       </c>
       <c r="M21">
-        <v>1.042188950710336</v>
+        <v>1.04802801136622</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9932990151487417</v>
+        <v>1.003721860396981</v>
       </c>
       <c r="D22">
-        <v>1.01954606445516</v>
+        <v>1.026951301463602</v>
       </c>
       <c r="E22">
-        <v>1.011379114758306</v>
+        <v>1.020916994157608</v>
       </c>
       <c r="F22">
-        <v>1.022613033809598</v>
+        <v>1.030973239892305</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049766701317516</v>
+        <v>1.048818586647313</v>
       </c>
       <c r="J22">
-        <v>1.024336164925425</v>
+        <v>1.034299561887368</v>
       </c>
       <c r="K22">
-        <v>1.034740006276225</v>
+        <v>1.042007110112877</v>
       </c>
       <c r="L22">
-        <v>1.02672847008431</v>
+        <v>1.036085166039671</v>
       </c>
       <c r="M22">
-        <v>1.037749449320147</v>
+        <v>1.04595510819394</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9964849359350082</v>
+        <v>1.005408403022999</v>
       </c>
       <c r="D23">
-        <v>1.022056120463903</v>
+        <v>1.028220225505028</v>
       </c>
       <c r="E23">
-        <v>1.01404662956031</v>
+        <v>1.022268512353699</v>
       </c>
       <c r="F23">
-        <v>1.025334010728463</v>
+        <v>1.032400688808074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05094516267272</v>
+        <v>1.049343548496022</v>
       </c>
       <c r="J23">
-        <v>1.02671707471033</v>
+        <v>1.035259767888246</v>
       </c>
       <c r="K23">
-        <v>1.036899950893542</v>
+        <v>1.042952260856949</v>
       </c>
       <c r="L23">
-        <v>1.029038373541542</v>
+        <v>1.037108461549119</v>
       </c>
       <c r="M23">
-        <v>1.040118174155866</v>
+        <v>1.047057891421263</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008586587457974</v>
+        <v>1.011914312612649</v>
       </c>
       <c r="D24">
-        <v>1.031603791263891</v>
+        <v>1.033125723891477</v>
       </c>
       <c r="E24">
-        <v>1.024199422335584</v>
+        <v>1.027497609861056</v>
       </c>
       <c r="F24">
-        <v>1.03568980600302</v>
+        <v>1.037922328956587</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055394790106894</v>
+        <v>1.051353968424383</v>
       </c>
       <c r="J24">
-        <v>1.035758063743475</v>
+        <v>1.038961320834463</v>
       </c>
       <c r="K24">
-        <v>1.045097744565913</v>
+        <v>1.046595058613734</v>
       </c>
       <c r="L24">
-        <v>1.037814490874835</v>
+        <v>1.041058451905147</v>
       </c>
       <c r="M24">
-        <v>1.04911787434613</v>
+        <v>1.051314679872577</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021821774677692</v>
+        <v>1.019205191273017</v>
       </c>
       <c r="D25">
-        <v>1.042066740480957</v>
+        <v>1.03864264921393</v>
       </c>
       <c r="E25">
-        <v>1.035338943839717</v>
+        <v>1.033387578409338</v>
       </c>
       <c r="F25">
-        <v>1.047050744074521</v>
+        <v>1.044139314006492</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060203590251026</v>
+        <v>1.053575658178819</v>
       </c>
       <c r="J25">
-        <v>1.045636423456906</v>
+        <v>1.043103070565247</v>
       </c>
       <c r="K25">
-        <v>1.054045325902364</v>
+        <v>1.050669306379443</v>
       </c>
       <c r="L25">
-        <v>1.047412363800717</v>
+        <v>1.045488797011186</v>
       </c>
       <c r="M25">
-        <v>1.058960066191389</v>
+        <v>1.056088995289173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02482848609172</v>
+        <v>1.049185476250953</v>
       </c>
       <c r="D2">
-        <v>1.0429115043071</v>
+        <v>1.056631418948794</v>
       </c>
       <c r="E2">
-        <v>1.037952685749181</v>
+        <v>1.056424711825644</v>
       </c>
       <c r="F2">
-        <v>1.048955910654334</v>
+        <v>1.06713958029171</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055262828791848</v>
+        <v>1.047076762066251</v>
       </c>
       <c r="J2">
-        <v>1.046291119362725</v>
+        <v>1.054225262611738</v>
       </c>
       <c r="K2">
-        <v>1.053803712241188</v>
+        <v>1.059368599651256</v>
       </c>
       <c r="L2">
-        <v>1.048907437346921</v>
+        <v>1.05916245964086</v>
       </c>
       <c r="M2">
-        <v>1.059772878507227</v>
+        <v>1.069848244470518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028807918978234</v>
+        <v>1.050042291345221</v>
       </c>
       <c r="D3">
-        <v>1.045939535866973</v>
+        <v>1.05730876261192</v>
       </c>
       <c r="E3">
-        <v>1.041195404948261</v>
+        <v>1.057169986226655</v>
       </c>
       <c r="F3">
-        <v>1.05237614520221</v>
+        <v>1.067924808290429</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056440901351933</v>
+        <v>1.047287393483905</v>
       </c>
       <c r="J3">
-        <v>1.048542912254781</v>
+        <v>1.054731710113886</v>
       </c>
       <c r="K3">
-        <v>1.056016510542728</v>
+        <v>1.059859967496469</v>
       </c>
       <c r="L3">
-        <v>1.051326979529883</v>
+        <v>1.059721544458103</v>
       </c>
       <c r="M3">
-        <v>1.062380011199742</v>
+        <v>1.070449276200888</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031337322596741</v>
+        <v>1.050597475527165</v>
       </c>
       <c r="D4">
-        <v>1.047867221278192</v>
+        <v>1.057747720460268</v>
       </c>
       <c r="E4">
-        <v>1.043261916201378</v>
+        <v>1.057653250772433</v>
       </c>
       <c r="F4">
-        <v>1.054555267595448</v>
+        <v>1.06843393389966</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057182151991784</v>
+        <v>1.047422918653766</v>
       </c>
       <c r="J4">
-        <v>1.049972020812322</v>
+        <v>1.055059501569578</v>
       </c>
       <c r="K4">
-        <v>1.057420317676653</v>
+        <v>1.060177903540011</v>
       </c>
       <c r="L4">
-        <v>1.052864807584642</v>
+        <v>1.060083662331434</v>
       </c>
       <c r="M4">
-        <v>1.064036997014007</v>
+        <v>1.070838551887947</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03239011169105</v>
+        <v>1.050831056983225</v>
       </c>
       <c r="D5">
-        <v>1.048670246351932</v>
+        <v>1.057932417176784</v>
       </c>
       <c r="E5">
-        <v>1.044123296237606</v>
+        <v>1.057856657988262</v>
       </c>
       <c r="F5">
-        <v>1.055463464234299</v>
+        <v>1.068648215034502</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05748883336771</v>
+        <v>1.047479708944336</v>
       </c>
       <c r="J5">
-        <v>1.050566295949763</v>
+        <v>1.055197324348303</v>
       </c>
       <c r="K5">
-        <v>1.058003932689705</v>
+        <v>1.060311559632247</v>
       </c>
       <c r="L5">
-        <v>1.053504834039592</v>
+        <v>1.060235979608429</v>
       </c>
       <c r="M5">
-        <v>1.064726596867001</v>
+        <v>1.071002289862425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032566269105017</v>
+        <v>1.050870286961657</v>
       </c>
       <c r="D6">
-        <v>1.048804651171067</v>
+        <v>1.057963437828637</v>
       </c>
       <c r="E6">
-        <v>1.044267499087723</v>
+        <v>1.057890825137249</v>
       </c>
       <c r="F6">
-        <v>1.055615497409887</v>
+        <v>1.068684208072889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057540039554083</v>
+        <v>1.047489233443219</v>
       </c>
       <c r="J6">
-        <v>1.050665699705212</v>
+        <v>1.0552204664889</v>
       </c>
       <c r="K6">
-        <v>1.058101544998691</v>
+        <v>1.060334000790259</v>
       </c>
       <c r="L6">
-        <v>1.053611922430745</v>
+        <v>1.060261559168707</v>
       </c>
       <c r="M6">
-        <v>1.064841978676477</v>
+        <v>1.071029787212796</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031351431124705</v>
+        <v>1.050600595940924</v>
       </c>
       <c r="D7">
-        <v>1.047877980047531</v>
+        <v>1.057750187765039</v>
       </c>
       <c r="E7">
-        <v>1.043273454722994</v>
+        <v>1.057655967757966</v>
       </c>
       <c r="F7">
-        <v>1.054567433727591</v>
+        <v>1.068436796175563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057186269169761</v>
+        <v>1.047423678214283</v>
       </c>
       <c r="J7">
-        <v>1.04997998695282</v>
+        <v>1.055061343090344</v>
       </c>
       <c r="K7">
-        <v>1.057428141476758</v>
+        <v>1.060179689477588</v>
       </c>
       <c r="L7">
-        <v>1.052873384872027</v>
+        <v>1.060085697278387</v>
       </c>
       <c r="M7">
-        <v>1.064046238732779</v>
+        <v>1.070840739425015</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026182992187182</v>
+        <v>1.049474880967544</v>
       </c>
       <c r="D8">
-        <v>1.043941521270017</v>
+        <v>1.056860190320937</v>
       </c>
       <c r="E8">
-        <v>1.039055285205542</v>
+        <v>1.056676368003242</v>
       </c>
       <c r="F8">
-        <v>1.050118977569677</v>
+        <v>1.067404737180444</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055665380285184</v>
+        <v>1.047148104384164</v>
       </c>
       <c r="J8">
-        <v>1.047058015375546</v>
+        <v>1.05439640028493</v>
       </c>
       <c r="K8">
-        <v>1.054557439998127</v>
+        <v>1.059534661322374</v>
       </c>
       <c r="L8">
-        <v>1.049730991230778</v>
+        <v>1.05935133106428</v>
       </c>
       <c r="M8">
-        <v>1.060660297942183</v>
+        <v>1.07005128879567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016710921688553</v>
+        <v>1.047497181886414</v>
       </c>
       <c r="D9">
-        <v>1.036752971394987</v>
+        <v>1.055297123603673</v>
       </c>
       <c r="E9">
-        <v>1.031368949599594</v>
+        <v>1.05495810116187</v>
       </c>
       <c r="F9">
-        <v>1.042008920654035</v>
+        <v>1.065594098735263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052819665638735</v>
+        <v>1.046656664256108</v>
       </c>
       <c r="J9">
-        <v>1.041687067639438</v>
+        <v>1.053225405002875</v>
       </c>
       <c r="K9">
-        <v>1.049276628630979</v>
+        <v>1.058398010516439</v>
       </c>
       <c r="L9">
-        <v>1.043972793206179</v>
+        <v>1.058060050600894</v>
       </c>
       <c r="M9">
-        <v>1.054455313230565</v>
+        <v>1.068663065641188</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010127939065636</v>
+        <v>1.046182822056968</v>
       </c>
       <c r="D10">
-        <v>1.031777128391876</v>
+        <v>1.054258701051067</v>
       </c>
       <c r="E10">
-        <v>1.026059340134515</v>
+        <v>1.053818024382452</v>
       </c>
       <c r="F10">
-        <v>1.036403795763578</v>
+        <v>1.064392491979943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050804389608259</v>
+        <v>1.046325154177575</v>
       </c>
       <c r="J10">
-        <v>1.037945408992932</v>
+        <v>1.05244530556842</v>
       </c>
       <c r="K10">
-        <v>1.045595399412916</v>
+        <v>1.057640307237372</v>
       </c>
       <c r="L10">
-        <v>1.039973503210849</v>
+        <v>1.057201146295875</v>
       </c>
       <c r="M10">
-        <v>1.050145469998952</v>
+        <v>1.06773962304555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007208297658969</v>
+        <v>1.04561468533382</v>
       </c>
       <c r="D11">
-        <v>1.029575685609563</v>
+        <v>1.053809935113368</v>
       </c>
       <c r="E11">
-        <v>1.023712687776313</v>
+        <v>1.053325671697133</v>
       </c>
       <c r="F11">
-        <v>1.033925857918257</v>
+        <v>1.063873509350491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049902133556797</v>
+        <v>1.046180695238632</v>
       </c>
       <c r="J11">
-        <v>1.036284247497909</v>
+        <v>1.052107664754305</v>
       </c>
       <c r="K11">
-        <v>1.043960600113327</v>
+        <v>1.057312246121028</v>
       </c>
       <c r="L11">
-        <v>1.038200856654387</v>
+        <v>1.056829712473977</v>
       </c>
       <c r="M11">
-        <v>1.0482351397139</v>
+        <v>1.067340266390971</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006112921296552</v>
+        <v>1.045403804501021</v>
       </c>
       <c r="D12">
-        <v>1.028750628847204</v>
+        <v>1.05364337725666</v>
       </c>
       <c r="E12">
-        <v>1.022833569673615</v>
+        <v>1.053142988479437</v>
       </c>
       <c r="F12">
-        <v>1.032997453943132</v>
+        <v>1.063680936618225</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049562398917201</v>
+        <v>1.046126900373312</v>
       </c>
       <c r="J12">
-        <v>1.035660805724784</v>
+        <v>1.051982273441457</v>
       </c>
       <c r="K12">
-        <v>1.043346990417451</v>
+        <v>1.057190395453165</v>
       </c>
       <c r="L12">
-        <v>1.037536010317598</v>
+        <v>1.056691818667107</v>
       </c>
       <c r="M12">
-        <v>1.04751865092997</v>
+        <v>1.067192004334723</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006348384463167</v>
+        <v>1.045449032319646</v>
       </c>
       <c r="D13">
-        <v>1.028927943624877</v>
+        <v>1.053679098397337</v>
       </c>
       <c r="E13">
-        <v>1.023022486753433</v>
+        <v>1.053182165636035</v>
       </c>
       <c r="F13">
-        <v>1.033196966917763</v>
+        <v>1.063722235015882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049635483579158</v>
+        <v>1.046138445713821</v>
       </c>
       <c r="J13">
-        <v>1.035794830496295</v>
+        <v>1.052009169217339</v>
       </c>
       <c r="K13">
-        <v>1.043478904188133</v>
+        <v>1.05721653254808</v>
       </c>
       <c r="L13">
-        <v>1.037678916315812</v>
+        <v>1.056721394017415</v>
       </c>
       <c r="M13">
-        <v>1.047672657359973</v>
+        <v>1.067223803547751</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007117978686025</v>
+        <v>1.045597250779321</v>
       </c>
       <c r="D14">
-        <v>1.029507637752958</v>
+        <v>1.053796164648624</v>
       </c>
       <c r="E14">
-        <v>1.023640173847637</v>
+        <v>1.05331056698483</v>
       </c>
       <c r="F14">
-        <v>1.033849280749429</v>
+        <v>1.063857587125858</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04987414562318</v>
+        <v>1.046176251316014</v>
       </c>
       <c r="J14">
-        <v>1.036232845930664</v>
+        <v>1.052097299381531</v>
       </c>
       <c r="K14">
-        <v>1.043910010389371</v>
+        <v>1.057302173779509</v>
       </c>
       <c r="L14">
-        <v>1.038146032479085</v>
+        <v>1.05681831262572</v>
       </c>
       <c r="M14">
-        <v>1.048176057076808</v>
+        <v>1.067328009427157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007590692400621</v>
+        <v>1.04568859305144</v>
       </c>
       <c r="D15">
-        <v>1.029863824144739</v>
+        <v>1.053868310815574</v>
       </c>
       <c r="E15">
-        <v>1.024019751879275</v>
+        <v>1.053389705654476</v>
       </c>
       <c r="F15">
-        <v>1.034250123825484</v>
+        <v>1.063941008660824</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050020579611162</v>
+        <v>1.046199526546148</v>
       </c>
       <c r="J15">
-        <v>1.03650186418227</v>
+        <v>1.052151602441999</v>
       </c>
       <c r="K15">
-        <v>1.044174777260759</v>
+        <v>1.057354940984742</v>
       </c>
       <c r="L15">
-        <v>1.038432981296672</v>
+        <v>1.056878037131383</v>
       </c>
       <c r="M15">
-        <v>1.048485294503665</v>
+        <v>1.067392224333154</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010320206767561</v>
+        <v>1.046220548421869</v>
       </c>
       <c r="D16">
-        <v>1.031922218066044</v>
+        <v>1.054288502826717</v>
       </c>
       <c r="E16">
-        <v>1.026214050667853</v>
+        <v>1.053850727936395</v>
       </c>
       <c r="F16">
-        <v>1.03656714745399</v>
+        <v>1.064426963155744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050863632925664</v>
+        <v>1.046334722273577</v>
       </c>
       <c r="J16">
-        <v>1.03805476975773</v>
+        <v>1.052467716899967</v>
       </c>
       <c r="K16">
-        <v>1.045703015617057</v>
+        <v>1.057662080313931</v>
       </c>
       <c r="L16">
-        <v>1.040090263967188</v>
+        <v>1.057225807324195</v>
       </c>
       <c r="M16">
-        <v>1.050271299180186</v>
+        <v>1.067766137708896</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012013497192638</v>
+        <v>1.046554496186545</v>
       </c>
       <c r="D17">
-        <v>1.033200638249041</v>
+        <v>1.054552314550764</v>
       </c>
       <c r="E17">
-        <v>1.027577522183557</v>
+        <v>1.054140266633813</v>
       </c>
       <c r="F17">
-        <v>1.038006696252638</v>
+        <v>1.064732144698517</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051384425686427</v>
+        <v>1.046419283116915</v>
       </c>
       <c r="J17">
-        <v>1.039017715834748</v>
+        <v>1.052666047578747</v>
       </c>
       <c r="K17">
-        <v>1.04665054826643</v>
+        <v>1.057854749575138</v>
       </c>
       <c r="L17">
-        <v>1.041118698743139</v>
+        <v>1.057444083272555</v>
       </c>
       <c r="M17">
-        <v>1.051379605477124</v>
+        <v>1.068000818745465</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012994526557916</v>
+        <v>1.046749377647782</v>
       </c>
       <c r="D18">
-        <v>1.033941818035927</v>
+        <v>1.054706276041267</v>
       </c>
       <c r="E18">
-        <v>1.028368246205652</v>
+        <v>1.054309275736672</v>
       </c>
       <c r="F18">
-        <v>1.038841475494282</v>
+        <v>1.06491027925115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051685346834945</v>
+        <v>1.046468517894188</v>
       </c>
       <c r="J18">
-        <v>1.039575448031727</v>
+        <v>1.052781744636795</v>
       </c>
       <c r="K18">
-        <v>1.047199308218877</v>
+        <v>1.057967133037246</v>
       </c>
       <c r="L18">
-        <v>1.041714636563632</v>
+        <v>1.057571445901033</v>
       </c>
       <c r="M18">
-        <v>1.052021822343736</v>
+        <v>1.068137752363402</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013327920960832</v>
+        <v>1.046815843315027</v>
       </c>
       <c r="D19">
-        <v>1.034193786606458</v>
+        <v>1.054758787218335</v>
       </c>
       <c r="E19">
-        <v>1.02863709771062</v>
+        <v>1.054366924798533</v>
       </c>
       <c r="F19">
-        <v>1.03912529513875</v>
+        <v>1.064971040063678</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051787474298667</v>
+        <v>1.046485290708862</v>
       </c>
       <c r="J19">
-        <v>1.03976495979694</v>
+        <v>1.052821196698332</v>
       </c>
       <c r="K19">
-        <v>1.047385763449599</v>
+        <v>1.05800545331543</v>
       </c>
       <c r="L19">
-        <v>1.041917176817865</v>
+        <v>1.057614881015274</v>
       </c>
       <c r="M19">
-        <v>1.052240090733735</v>
+        <v>1.068184451303439</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011832513306503</v>
+        <v>1.04651865687367</v>
       </c>
       <c r="D20">
-        <v>1.033063943554676</v>
+        <v>1.054524001287733</v>
       </c>
       <c r="E20">
-        <v>1.027431709132838</v>
+        <v>1.054109188816592</v>
       </c>
       <c r="F20">
-        <v>1.037852754011835</v>
+        <v>1.064699388422855</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051328845205177</v>
+        <v>1.046410219649073</v>
       </c>
       <c r="J20">
-        <v>1.038914809937682</v>
+        <v>1.052644767102589</v>
       </c>
       <c r="K20">
-        <v>1.046549294133249</v>
+        <v>1.05783407769298</v>
       </c>
       <c r="L20">
-        <v>1.041008765820355</v>
+        <v>1.05742065956409</v>
       </c>
       <c r="M20">
-        <v>1.051261135149392</v>
+        <v>1.067975634699981</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006891657192569</v>
+        <v>1.045553599970231</v>
       </c>
       <c r="D21">
-        <v>1.029337137483127</v>
+        <v>1.053761687846785</v>
       </c>
       <c r="E21">
-        <v>1.023458489193859</v>
+        <v>1.053272750492801</v>
       </c>
       <c r="F21">
-        <v>1.033657413929915</v>
+        <v>1.063817723751092</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049803993695849</v>
+        <v>1.046165122267122</v>
       </c>
       <c r="J21">
-        <v>1.036104040419981</v>
+        <v>1.052071346584475</v>
       </c>
       <c r="K21">
-        <v>1.043783238283435</v>
+        <v>1.05727695439885</v>
       </c>
       <c r="L21">
-        <v>1.038008657403004</v>
+        <v>1.056789770476812</v>
       </c>
       <c r="M21">
-        <v>1.04802801136622</v>
+        <v>1.06729732125996</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003721860396981</v>
+        <v>1.044947701671429</v>
       </c>
       <c r="D22">
-        <v>1.026951301463602</v>
+        <v>1.053283166160862</v>
       </c>
       <c r="E22">
-        <v>1.020916994157608</v>
+        <v>1.052747997904439</v>
       </c>
       <c r="F22">
-        <v>1.030973239892305</v>
+        <v>1.063264547365341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048818586647313</v>
+        <v>1.046010231124711</v>
       </c>
       <c r="J22">
-        <v>1.034299561887368</v>
+        <v>1.051710951100655</v>
       </c>
       <c r="K22">
-        <v>1.042007110112877</v>
+        <v>1.056926703349914</v>
       </c>
       <c r="L22">
-        <v>1.036085166039671</v>
+        <v>1.056393530040969</v>
       </c>
       <c r="M22">
-        <v>1.04595510819394</v>
+        <v>1.066871283760792</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005408403022999</v>
+        <v>1.045268816653364</v>
       </c>
       <c r="D23">
-        <v>1.028220225505028</v>
+        <v>1.053536765461752</v>
       </c>
       <c r="E23">
-        <v>1.022268512353699</v>
+        <v>1.053026069575468</v>
       </c>
       <c r="F23">
-        <v>1.032400688808074</v>
+        <v>1.063557685880894</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049343548496022</v>
+        <v>1.046092416351781</v>
       </c>
       <c r="J23">
-        <v>1.035259767888246</v>
+        <v>1.05190199014327</v>
       </c>
       <c r="K23">
-        <v>1.042952260856949</v>
+        <v>1.057112374315466</v>
       </c>
       <c r="L23">
-        <v>1.037108461549119</v>
+        <v>1.05660354383857</v>
       </c>
       <c r="M23">
-        <v>1.047057891421263</v>
+        <v>1.067097091558757</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011914312612649</v>
+        <v>1.046534850821979</v>
       </c>
       <c r="D24">
-        <v>1.033125723891477</v>
+        <v>1.054536794571493</v>
       </c>
       <c r="E24">
-        <v>1.027497609861056</v>
+        <v>1.05412323115516</v>
       </c>
       <c r="F24">
-        <v>1.037922328956587</v>
+        <v>1.064714189180715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051353968424383</v>
+        <v>1.046414315312468</v>
       </c>
       <c r="J24">
-        <v>1.038961320834463</v>
+        <v>1.052654382790277</v>
       </c>
       <c r="K24">
-        <v>1.046595058613734</v>
+        <v>1.057843418418426</v>
       </c>
       <c r="L24">
-        <v>1.041058451905147</v>
+        <v>1.057431243587869</v>
       </c>
       <c r="M24">
-        <v>1.051314679872577</v>
+        <v>1.06798701413757</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019205191273017</v>
+        <v>1.048007748290789</v>
       </c>
       <c r="D25">
-        <v>1.03864264921393</v>
+        <v>1.055700583522109</v>
       </c>
       <c r="E25">
-        <v>1.033387578409338</v>
+        <v>1.055401364820919</v>
       </c>
       <c r="F25">
-        <v>1.044139314006492</v>
+        <v>1.066061234043675</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053575658178819</v>
+        <v>1.046784401128701</v>
       </c>
       <c r="J25">
-        <v>1.043103070565247</v>
+        <v>1.053528041842383</v>
       </c>
       <c r="K25">
-        <v>1.050669306379443</v>
+        <v>1.058691856827515</v>
       </c>
       <c r="L25">
-        <v>1.045488797011186</v>
+        <v>1.058393540500242</v>
       </c>
       <c r="M25">
-        <v>1.056088995289173</v>
+        <v>1.069021602199975</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049185476250953</v>
+        <v>1.024828486091719</v>
       </c>
       <c r="D2">
-        <v>1.056631418948794</v>
+        <v>1.042911504307099</v>
       </c>
       <c r="E2">
-        <v>1.056424711825644</v>
+        <v>1.037952685749181</v>
       </c>
       <c r="F2">
-        <v>1.06713958029171</v>
+        <v>1.048955910654334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047076762066251</v>
+        <v>1.055262828791848</v>
       </c>
       <c r="J2">
-        <v>1.054225262611738</v>
+        <v>1.046291119362724</v>
       </c>
       <c r="K2">
-        <v>1.059368599651256</v>
+        <v>1.053803712241187</v>
       </c>
       <c r="L2">
-        <v>1.05916245964086</v>
+        <v>1.048907437346921</v>
       </c>
       <c r="M2">
-        <v>1.069848244470518</v>
+        <v>1.059772878507226</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050042291345221</v>
+        <v>1.028807918978234</v>
       </c>
       <c r="D3">
-        <v>1.05730876261192</v>
+        <v>1.045939535866973</v>
       </c>
       <c r="E3">
-        <v>1.057169986226655</v>
+        <v>1.041195404948262</v>
       </c>
       <c r="F3">
-        <v>1.067924808290429</v>
+        <v>1.05237614520221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047287393483905</v>
+        <v>1.056440901351933</v>
       </c>
       <c r="J3">
-        <v>1.054731710113886</v>
+        <v>1.048542912254781</v>
       </c>
       <c r="K3">
-        <v>1.059859967496469</v>
+        <v>1.056016510542729</v>
       </c>
       <c r="L3">
-        <v>1.059721544458103</v>
+        <v>1.051326979529883</v>
       </c>
       <c r="M3">
-        <v>1.070449276200888</v>
+        <v>1.062380011199742</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050597475527165</v>
+        <v>1.031337322596741</v>
       </c>
       <c r="D4">
-        <v>1.057747720460268</v>
+        <v>1.047867221278192</v>
       </c>
       <c r="E4">
-        <v>1.057653250772433</v>
+        <v>1.043261916201378</v>
       </c>
       <c r="F4">
-        <v>1.06843393389966</v>
+        <v>1.054555267595448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047422918653766</v>
+        <v>1.057182151991784</v>
       </c>
       <c r="J4">
-        <v>1.055059501569578</v>
+        <v>1.049972020812322</v>
       </c>
       <c r="K4">
-        <v>1.060177903540011</v>
+        <v>1.057420317676653</v>
       </c>
       <c r="L4">
-        <v>1.060083662331434</v>
+        <v>1.052864807584642</v>
       </c>
       <c r="M4">
-        <v>1.070838551887947</v>
+        <v>1.064036997014007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050831056983225</v>
+        <v>1.032390111691049</v>
       </c>
       <c r="D5">
-        <v>1.057932417176784</v>
+        <v>1.048670246351931</v>
       </c>
       <c r="E5">
-        <v>1.057856657988262</v>
+        <v>1.044123296237605</v>
       </c>
       <c r="F5">
-        <v>1.068648215034502</v>
+        <v>1.055463464234298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047479708944336</v>
+        <v>1.057488833367709</v>
       </c>
       <c r="J5">
-        <v>1.055197324348303</v>
+        <v>1.050566295949762</v>
       </c>
       <c r="K5">
-        <v>1.060311559632247</v>
+        <v>1.058003932689704</v>
       </c>
       <c r="L5">
-        <v>1.060235979608429</v>
+        <v>1.053504834039591</v>
       </c>
       <c r="M5">
-        <v>1.071002289862425</v>
+        <v>1.064726596867</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050870286961657</v>
+        <v>1.032566269105017</v>
       </c>
       <c r="D6">
-        <v>1.057963437828637</v>
+        <v>1.048804651171067</v>
       </c>
       <c r="E6">
-        <v>1.057890825137249</v>
+        <v>1.044267499087723</v>
       </c>
       <c r="F6">
-        <v>1.068684208072889</v>
+        <v>1.055615497409887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047489233443219</v>
+        <v>1.057540039554083</v>
       </c>
       <c r="J6">
-        <v>1.0552204664889</v>
+        <v>1.050665699705212</v>
       </c>
       <c r="K6">
-        <v>1.060334000790259</v>
+        <v>1.058101544998691</v>
       </c>
       <c r="L6">
-        <v>1.060261559168707</v>
+        <v>1.053611922430745</v>
       </c>
       <c r="M6">
-        <v>1.071029787212796</v>
+        <v>1.064841978676477</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050600595940924</v>
+        <v>1.031351431124705</v>
       </c>
       <c r="D7">
-        <v>1.057750187765039</v>
+        <v>1.047877980047532</v>
       </c>
       <c r="E7">
-        <v>1.057655967757966</v>
+        <v>1.043273454722994</v>
       </c>
       <c r="F7">
-        <v>1.068436796175563</v>
+        <v>1.054567433727591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047423678214283</v>
+        <v>1.057186269169761</v>
       </c>
       <c r="J7">
-        <v>1.055061343090344</v>
+        <v>1.04997998695282</v>
       </c>
       <c r="K7">
-        <v>1.060179689477588</v>
+        <v>1.057428141476759</v>
       </c>
       <c r="L7">
-        <v>1.060085697278387</v>
+        <v>1.052873384872027</v>
       </c>
       <c r="M7">
-        <v>1.070840739425015</v>
+        <v>1.064046238732779</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049474880967544</v>
+        <v>1.02618299218718</v>
       </c>
       <c r="D8">
-        <v>1.056860190320937</v>
+        <v>1.043941521270015</v>
       </c>
       <c r="E8">
-        <v>1.056676368003242</v>
+        <v>1.039055285205541</v>
       </c>
       <c r="F8">
-        <v>1.067404737180444</v>
+        <v>1.050118977569675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047148104384164</v>
+        <v>1.055665380285183</v>
       </c>
       <c r="J8">
-        <v>1.05439640028493</v>
+        <v>1.047058015375544</v>
       </c>
       <c r="K8">
-        <v>1.059534661322374</v>
+        <v>1.054557439998125</v>
       </c>
       <c r="L8">
-        <v>1.05935133106428</v>
+        <v>1.049730991230776</v>
       </c>
       <c r="M8">
-        <v>1.07005128879567</v>
+        <v>1.060660297942181</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047497181886414</v>
+        <v>1.016710921688552</v>
       </c>
       <c r="D9">
-        <v>1.055297123603673</v>
+        <v>1.036752971394986</v>
       </c>
       <c r="E9">
-        <v>1.05495810116187</v>
+        <v>1.031368949599593</v>
       </c>
       <c r="F9">
-        <v>1.065594098735263</v>
+        <v>1.042008920654033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046656664256108</v>
+        <v>1.052819665638734</v>
       </c>
       <c r="J9">
-        <v>1.053225405002875</v>
+        <v>1.041687067639437</v>
       </c>
       <c r="K9">
-        <v>1.058398010516439</v>
+        <v>1.049276628630978</v>
       </c>
       <c r="L9">
-        <v>1.058060050600894</v>
+        <v>1.043972793206177</v>
       </c>
       <c r="M9">
-        <v>1.068663065641188</v>
+        <v>1.054455313230564</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046182822056968</v>
+        <v>1.010127939065636</v>
       </c>
       <c r="D10">
-        <v>1.054258701051067</v>
+        <v>1.031777128391877</v>
       </c>
       <c r="E10">
-        <v>1.053818024382452</v>
+        <v>1.026059340134515</v>
       </c>
       <c r="F10">
-        <v>1.064392491979943</v>
+        <v>1.036403795763578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046325154177575</v>
+        <v>1.050804389608259</v>
       </c>
       <c r="J10">
-        <v>1.05244530556842</v>
+        <v>1.037945408992932</v>
       </c>
       <c r="K10">
-        <v>1.057640307237372</v>
+        <v>1.045595399412916</v>
       </c>
       <c r="L10">
-        <v>1.057201146295875</v>
+        <v>1.03997350321085</v>
       </c>
       <c r="M10">
-        <v>1.06773962304555</v>
+        <v>1.050145469998953</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04561468533382</v>
+        <v>1.007208297658968</v>
       </c>
       <c r="D11">
-        <v>1.053809935113368</v>
+        <v>1.029575685609562</v>
       </c>
       <c r="E11">
-        <v>1.053325671697133</v>
+        <v>1.023712687776313</v>
       </c>
       <c r="F11">
-        <v>1.063873509350491</v>
+        <v>1.033925857918257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046180695238632</v>
+        <v>1.049902133556797</v>
       </c>
       <c r="J11">
-        <v>1.052107664754305</v>
+        <v>1.036284247497908</v>
       </c>
       <c r="K11">
-        <v>1.057312246121028</v>
+        <v>1.043960600113326</v>
       </c>
       <c r="L11">
-        <v>1.056829712473977</v>
+        <v>1.038200856654386</v>
       </c>
       <c r="M11">
-        <v>1.067340266390971</v>
+        <v>1.0482351397139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045403804501021</v>
+        <v>1.00611292129655</v>
       </c>
       <c r="D12">
-        <v>1.05364337725666</v>
+        <v>1.028750628847202</v>
       </c>
       <c r="E12">
-        <v>1.053142988479437</v>
+        <v>1.022833569673614</v>
       </c>
       <c r="F12">
-        <v>1.063680936618225</v>
+        <v>1.032997453943131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046126900373312</v>
+        <v>1.0495623989172</v>
       </c>
       <c r="J12">
-        <v>1.051982273441457</v>
+        <v>1.035660805724782</v>
       </c>
       <c r="K12">
-        <v>1.057190395453165</v>
+        <v>1.04334699041745</v>
       </c>
       <c r="L12">
-        <v>1.056691818667107</v>
+        <v>1.037536010317596</v>
       </c>
       <c r="M12">
-        <v>1.067192004334723</v>
+        <v>1.047518650929969</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045449032319646</v>
+        <v>1.006348384463167</v>
       </c>
       <c r="D13">
-        <v>1.053679098397337</v>
+        <v>1.028927943624877</v>
       </c>
       <c r="E13">
-        <v>1.053182165636035</v>
+        <v>1.023022486753433</v>
       </c>
       <c r="F13">
-        <v>1.063722235015882</v>
+        <v>1.033196966917763</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046138445713821</v>
+        <v>1.049635483579158</v>
       </c>
       <c r="J13">
-        <v>1.052009169217339</v>
+        <v>1.035794830496295</v>
       </c>
       <c r="K13">
-        <v>1.05721653254808</v>
+        <v>1.043478904188133</v>
       </c>
       <c r="L13">
-        <v>1.056721394017415</v>
+        <v>1.037678916315812</v>
       </c>
       <c r="M13">
-        <v>1.067223803547751</v>
+        <v>1.047672657359973</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045597250779321</v>
+        <v>1.007117978686025</v>
       </c>
       <c r="D14">
-        <v>1.053796164648624</v>
+        <v>1.029507637752958</v>
       </c>
       <c r="E14">
-        <v>1.05331056698483</v>
+        <v>1.023640173847637</v>
       </c>
       <c r="F14">
-        <v>1.063857587125858</v>
+        <v>1.033849280749428</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046176251316014</v>
+        <v>1.049874145623179</v>
       </c>
       <c r="J14">
-        <v>1.052097299381531</v>
+        <v>1.036232845930664</v>
       </c>
       <c r="K14">
-        <v>1.057302173779509</v>
+        <v>1.043910010389371</v>
       </c>
       <c r="L14">
-        <v>1.05681831262572</v>
+        <v>1.038146032479085</v>
       </c>
       <c r="M14">
-        <v>1.067328009427157</v>
+        <v>1.048176057076808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04568859305144</v>
+        <v>1.007590692400621</v>
       </c>
       <c r="D15">
-        <v>1.053868310815574</v>
+        <v>1.029863824144739</v>
       </c>
       <c r="E15">
-        <v>1.053389705654476</v>
+        <v>1.024019751879274</v>
       </c>
       <c r="F15">
-        <v>1.063941008660824</v>
+        <v>1.034250123825483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046199526546148</v>
+        <v>1.050020579611162</v>
       </c>
       <c r="J15">
-        <v>1.052151602441999</v>
+        <v>1.03650186418227</v>
       </c>
       <c r="K15">
-        <v>1.057354940984742</v>
+        <v>1.044174777260759</v>
       </c>
       <c r="L15">
-        <v>1.056878037131383</v>
+        <v>1.038432981296672</v>
       </c>
       <c r="M15">
-        <v>1.067392224333154</v>
+        <v>1.048485294503665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046220548421869</v>
+        <v>1.010320206767561</v>
       </c>
       <c r="D16">
-        <v>1.054288502826717</v>
+        <v>1.031922218066044</v>
       </c>
       <c r="E16">
-        <v>1.053850727936395</v>
+        <v>1.026214050667853</v>
       </c>
       <c r="F16">
-        <v>1.064426963155744</v>
+        <v>1.03656714745399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046334722273577</v>
+        <v>1.050863632925663</v>
       </c>
       <c r="J16">
-        <v>1.052467716899967</v>
+        <v>1.03805476975773</v>
       </c>
       <c r="K16">
-        <v>1.057662080313931</v>
+        <v>1.045703015617056</v>
       </c>
       <c r="L16">
-        <v>1.057225807324195</v>
+        <v>1.040090263967188</v>
       </c>
       <c r="M16">
-        <v>1.067766137708896</v>
+        <v>1.050271299180186</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046554496186545</v>
+        <v>1.012013497192639</v>
       </c>
       <c r="D17">
-        <v>1.054552314550764</v>
+        <v>1.033200638249041</v>
       </c>
       <c r="E17">
-        <v>1.054140266633813</v>
+        <v>1.027577522183557</v>
       </c>
       <c r="F17">
-        <v>1.064732144698517</v>
+        <v>1.038006696252638</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046419283116915</v>
+        <v>1.051384425686428</v>
       </c>
       <c r="J17">
-        <v>1.052666047578747</v>
+        <v>1.039017715834748</v>
       </c>
       <c r="K17">
-        <v>1.057854749575138</v>
+        <v>1.04665054826643</v>
       </c>
       <c r="L17">
-        <v>1.057444083272555</v>
+        <v>1.041118698743139</v>
       </c>
       <c r="M17">
-        <v>1.068000818745465</v>
+        <v>1.051379605477124</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046749377647782</v>
+        <v>1.012994526557916</v>
       </c>
       <c r="D18">
-        <v>1.054706276041267</v>
+        <v>1.033941818035927</v>
       </c>
       <c r="E18">
-        <v>1.054309275736672</v>
+        <v>1.028368246205652</v>
       </c>
       <c r="F18">
-        <v>1.06491027925115</v>
+        <v>1.038841475494282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046468517894188</v>
+        <v>1.051685346834945</v>
       </c>
       <c r="J18">
-        <v>1.052781744636795</v>
+        <v>1.039575448031727</v>
       </c>
       <c r="K18">
-        <v>1.057967133037246</v>
+        <v>1.047199308218878</v>
       </c>
       <c r="L18">
-        <v>1.057571445901033</v>
+        <v>1.041714636563632</v>
       </c>
       <c r="M18">
-        <v>1.068137752363402</v>
+        <v>1.052021822343736</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046815843315027</v>
+        <v>1.013327920960831</v>
       </c>
       <c r="D19">
-        <v>1.054758787218335</v>
+        <v>1.034193786606457</v>
       </c>
       <c r="E19">
-        <v>1.054366924798533</v>
+        <v>1.028637097710619</v>
       </c>
       <c r="F19">
-        <v>1.064971040063678</v>
+        <v>1.039125295138749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046485290708862</v>
+        <v>1.051787474298667</v>
       </c>
       <c r="J19">
-        <v>1.052821196698332</v>
+        <v>1.039764959796939</v>
       </c>
       <c r="K19">
-        <v>1.05800545331543</v>
+        <v>1.047385763449598</v>
       </c>
       <c r="L19">
-        <v>1.057614881015274</v>
+        <v>1.041917176817863</v>
       </c>
       <c r="M19">
-        <v>1.068184451303439</v>
+        <v>1.052240090733733</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04651865687367</v>
+        <v>1.011832513306503</v>
       </c>
       <c r="D20">
-        <v>1.054524001287733</v>
+        <v>1.033063943554676</v>
       </c>
       <c r="E20">
-        <v>1.054109188816592</v>
+        <v>1.027431709132838</v>
       </c>
       <c r="F20">
-        <v>1.064699388422855</v>
+        <v>1.037852754011835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046410219649073</v>
+        <v>1.051328845205177</v>
       </c>
       <c r="J20">
-        <v>1.052644767102589</v>
+        <v>1.038914809937681</v>
       </c>
       <c r="K20">
-        <v>1.05783407769298</v>
+        <v>1.046549294133249</v>
       </c>
       <c r="L20">
-        <v>1.05742065956409</v>
+        <v>1.041008765820355</v>
       </c>
       <c r="M20">
-        <v>1.067975634699981</v>
+        <v>1.051261135149392</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045553599970231</v>
+        <v>1.006891657192569</v>
       </c>
       <c r="D21">
-        <v>1.053761687846785</v>
+        <v>1.029337137483126</v>
       </c>
       <c r="E21">
-        <v>1.053272750492801</v>
+        <v>1.023458489193859</v>
       </c>
       <c r="F21">
-        <v>1.063817723751092</v>
+        <v>1.033657413929914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046165122267122</v>
+        <v>1.049803993695848</v>
       </c>
       <c r="J21">
-        <v>1.052071346584475</v>
+        <v>1.03610404041998</v>
       </c>
       <c r="K21">
-        <v>1.05727695439885</v>
+        <v>1.043783238283434</v>
       </c>
       <c r="L21">
-        <v>1.056789770476812</v>
+        <v>1.038008657403003</v>
       </c>
       <c r="M21">
-        <v>1.06729732125996</v>
+        <v>1.048028011366219</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044947701671429</v>
+        <v>1.003721860396981</v>
       </c>
       <c r="D22">
-        <v>1.053283166160862</v>
+        <v>1.026951301463602</v>
       </c>
       <c r="E22">
-        <v>1.052747997904439</v>
+        <v>1.020916994157608</v>
       </c>
       <c r="F22">
-        <v>1.063264547365341</v>
+        <v>1.030973239892305</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046010231124711</v>
+        <v>1.048818586647313</v>
       </c>
       <c r="J22">
-        <v>1.051710951100655</v>
+        <v>1.034299561887368</v>
       </c>
       <c r="K22">
-        <v>1.056926703349914</v>
+        <v>1.042007110112877</v>
       </c>
       <c r="L22">
-        <v>1.056393530040969</v>
+        <v>1.036085166039671</v>
       </c>
       <c r="M22">
-        <v>1.066871283760792</v>
+        <v>1.04595510819394</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045268816653364</v>
+        <v>1.005408403022998</v>
       </c>
       <c r="D23">
-        <v>1.053536765461752</v>
+        <v>1.028220225505028</v>
       </c>
       <c r="E23">
-        <v>1.053026069575468</v>
+        <v>1.022268512353699</v>
       </c>
       <c r="F23">
-        <v>1.063557685880894</v>
+        <v>1.032400688808074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046092416351781</v>
+        <v>1.049343548496022</v>
       </c>
       <c r="J23">
-        <v>1.05190199014327</v>
+        <v>1.035259767888245</v>
       </c>
       <c r="K23">
-        <v>1.057112374315466</v>
+        <v>1.042952260856949</v>
       </c>
       <c r="L23">
-        <v>1.05660354383857</v>
+        <v>1.037108461549119</v>
       </c>
       <c r="M23">
-        <v>1.067097091558757</v>
+        <v>1.047057891421262</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046534850821979</v>
+        <v>1.011914312612649</v>
       </c>
       <c r="D24">
-        <v>1.054536794571493</v>
+        <v>1.033125723891477</v>
       </c>
       <c r="E24">
-        <v>1.05412323115516</v>
+        <v>1.027497609861056</v>
       </c>
       <c r="F24">
-        <v>1.064714189180715</v>
+        <v>1.037922328956587</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046414315312468</v>
+        <v>1.051353968424383</v>
       </c>
       <c r="J24">
-        <v>1.052654382790277</v>
+        <v>1.038961320834463</v>
       </c>
       <c r="K24">
-        <v>1.057843418418426</v>
+        <v>1.046595058613734</v>
       </c>
       <c r="L24">
-        <v>1.057431243587869</v>
+        <v>1.041058451905147</v>
       </c>
       <c r="M24">
-        <v>1.06798701413757</v>
+        <v>1.051314679872577</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048007748290789</v>
+        <v>1.019205191273016</v>
       </c>
       <c r="D25">
-        <v>1.055700583522109</v>
+        <v>1.03864264921393</v>
       </c>
       <c r="E25">
-        <v>1.055401364820919</v>
+        <v>1.033387578409337</v>
       </c>
       <c r="F25">
-        <v>1.066061234043675</v>
+        <v>1.044139314006492</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046784401128701</v>
+        <v>1.053575658178818</v>
       </c>
       <c r="J25">
-        <v>1.053528041842383</v>
+        <v>1.043103070565247</v>
       </c>
       <c r="K25">
-        <v>1.058691856827515</v>
+        <v>1.050669306379442</v>
       </c>
       <c r="L25">
-        <v>1.058393540500242</v>
+        <v>1.045488797011186</v>
       </c>
       <c r="M25">
-        <v>1.069021602199975</v>
+        <v>1.056088995289173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024828486091719</v>
+        <v>1.015031071556701</v>
       </c>
       <c r="D2">
-        <v>1.042911504307099</v>
+        <v>1.036146599015825</v>
       </c>
       <c r="E2">
-        <v>1.037952685749181</v>
+        <v>1.029961122572642</v>
       </c>
       <c r="F2">
-        <v>1.048955910654334</v>
+        <v>1.042057409754918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055262828791848</v>
+        <v>1.05640861698085</v>
       </c>
       <c r="J2">
-        <v>1.046291119362724</v>
+        <v>1.036771315757535</v>
       </c>
       <c r="K2">
-        <v>1.053803712241187</v>
+        <v>1.04712431585377</v>
       </c>
       <c r="L2">
-        <v>1.048907437346921</v>
+        <v>1.041018254149993</v>
       </c>
       <c r="M2">
-        <v>1.059772878507226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.052960337131061</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.05048687691748</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044391241143543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028807918978234</v>
+        <v>1.018806392057024</v>
       </c>
       <c r="D3">
-        <v>1.045939535866973</v>
+        <v>1.038680500818537</v>
       </c>
       <c r="E3">
-        <v>1.041195404948262</v>
+        <v>1.032858769164504</v>
       </c>
       <c r="F3">
-        <v>1.05237614520221</v>
+        <v>1.044763607487776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056440901351933</v>
+        <v>1.057255950180794</v>
       </c>
       <c r="J3">
-        <v>1.048542912254781</v>
+        <v>1.038797182250777</v>
       </c>
       <c r="K3">
-        <v>1.056016510542729</v>
+        <v>1.04884126935668</v>
       </c>
       <c r="L3">
-        <v>1.051326979529883</v>
+        <v>1.043087793958353</v>
       </c>
       <c r="M3">
-        <v>1.062380011199742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.054854058788082</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05198560874504</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04560261399555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031337322596741</v>
+        <v>1.02120774111753</v>
       </c>
       <c r="D4">
-        <v>1.047867221278192</v>
+        <v>1.04029431124898</v>
       </c>
       <c r="E4">
-        <v>1.043261916201378</v>
+        <v>1.034707434392263</v>
       </c>
       <c r="F4">
-        <v>1.054555267595448</v>
+        <v>1.046489783261839</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057182151991784</v>
+        <v>1.057782505701418</v>
       </c>
       <c r="J4">
-        <v>1.049972020812322</v>
+        <v>1.040084080125111</v>
       </c>
       <c r="K4">
-        <v>1.057420317676653</v>
+        <v>1.049929576726868</v>
       </c>
       <c r="L4">
-        <v>1.052864807584642</v>
+        <v>1.044404267585097</v>
       </c>
       <c r="M4">
-        <v>1.064036997014007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.056057716924477</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052938207986496</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046373016575019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032390111691049</v>
+        <v>1.022210642809491</v>
       </c>
       <c r="D5">
-        <v>1.048670246351931</v>
+        <v>1.040970391287625</v>
       </c>
       <c r="E5">
-        <v>1.044123296237605</v>
+        <v>1.035481264873895</v>
       </c>
       <c r="F5">
-        <v>1.055463464234298</v>
+        <v>1.047212272449938</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057488833367709</v>
+        <v>1.058000631415366</v>
       </c>
       <c r="J5">
-        <v>1.050566295949762</v>
+        <v>1.040622444771025</v>
       </c>
       <c r="K5">
-        <v>1.058003932689704</v>
+        <v>1.050385410253408</v>
       </c>
       <c r="L5">
-        <v>1.053504834039591</v>
+        <v>1.044955170022034</v>
       </c>
       <c r="M5">
-        <v>1.064726596867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.056561246977519</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053336711433628</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046702430300266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032566269105017</v>
+        <v>1.022382158957787</v>
       </c>
       <c r="D6">
-        <v>1.048804651171067</v>
+        <v>1.041088015871774</v>
       </c>
       <c r="E6">
-        <v>1.044267499087723</v>
+        <v>1.035614224034912</v>
       </c>
       <c r="F6">
-        <v>1.055615497409887</v>
+        <v>1.047336431197246</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057540039554083</v>
+        <v>1.058039263344468</v>
       </c>
       <c r="J6">
-        <v>1.050665699705212</v>
+        <v>1.040716110649772</v>
       </c>
       <c r="K6">
-        <v>1.058101544998691</v>
+        <v>1.050466048345711</v>
       </c>
       <c r="L6">
-        <v>1.053611922430745</v>
+        <v>1.045050710264771</v>
       </c>
       <c r="M6">
-        <v>1.064841978676477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.056648650488549</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05340588424553</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046768113232944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031351431124705</v>
+        <v>1.021231063802262</v>
       </c>
       <c r="D7">
-        <v>1.047877980047532</v>
+        <v>1.04031529649687</v>
       </c>
       <c r="E7">
-        <v>1.043273454722994</v>
+        <v>1.034726885049822</v>
       </c>
       <c r="F7">
-        <v>1.054567433727591</v>
+        <v>1.046507994105711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057186269169761</v>
+        <v>1.057791611277161</v>
       </c>
       <c r="J7">
-        <v>1.04997998695282</v>
+        <v>1.040100941070183</v>
       </c>
       <c r="K7">
-        <v>1.057428141476759</v>
+        <v>1.049947485721131</v>
       </c>
       <c r="L7">
-        <v>1.052873384872027</v>
+        <v>1.044420635458835</v>
       </c>
       <c r="M7">
-        <v>1.064046238732779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.056072907129556</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052950229812404</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046405613488173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02618299218718</v>
+        <v>1.016328004313864</v>
       </c>
       <c r="D8">
-        <v>1.043941521270015</v>
+        <v>1.037023016428917</v>
       </c>
       <c r="E8">
-        <v>1.039055285205541</v>
+        <v>1.030957230297724</v>
       </c>
       <c r="F8">
-        <v>1.050118977569675</v>
+        <v>1.042987740310787</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055665380285183</v>
+        <v>1.056707081545949</v>
       </c>
       <c r="J8">
-        <v>1.047058015375544</v>
+        <v>1.037472939998926</v>
       </c>
       <c r="K8">
-        <v>1.054557439998125</v>
+        <v>1.047723795518926</v>
       </c>
       <c r="L8">
-        <v>1.049730991230776</v>
+        <v>1.041733578778748</v>
       </c>
       <c r="M8">
-        <v>1.060660297942181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.053615274675761</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051005208839141</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044837837904348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016710921688552</v>
+        <v>1.007340625769064</v>
       </c>
       <c r="D9">
-        <v>1.036752971394986</v>
+        <v>1.030998522408988</v>
       </c>
       <c r="E9">
-        <v>1.031368949599593</v>
+        <v>1.024090804120327</v>
       </c>
       <c r="F9">
-        <v>1.042008920654033</v>
+        <v>1.036573308391588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052819665638734</v>
+        <v>1.054616791712823</v>
       </c>
       <c r="J9">
-        <v>1.041687067639437</v>
+        <v>1.032636804220408</v>
       </c>
       <c r="K9">
-        <v>1.049276628630978</v>
+        <v>1.043607922123663</v>
       </c>
       <c r="L9">
-        <v>1.043972793206177</v>
+        <v>1.036804752968993</v>
       </c>
       <c r="M9">
-        <v>1.054455313230564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.049099624347659</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047431416909986</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041924531867385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010127939065636</v>
+        <v>1.001161675512603</v>
       </c>
       <c r="D10">
-        <v>1.031777128391877</v>
+        <v>1.026886244752873</v>
       </c>
       <c r="E10">
-        <v>1.026059340134515</v>
+        <v>1.01942450183009</v>
       </c>
       <c r="F10">
-        <v>1.036403795763578</v>
+        <v>1.032242533540442</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050804389608259</v>
+        <v>1.053134308747542</v>
       </c>
       <c r="J10">
-        <v>1.037945408992932</v>
+        <v>1.02932927903802</v>
       </c>
       <c r="K10">
-        <v>1.045595399412916</v>
+        <v>1.040786454757475</v>
       </c>
       <c r="L10">
-        <v>1.03997350321085</v>
+        <v>1.033451679489306</v>
       </c>
       <c r="M10">
-        <v>1.050145469998953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.046053059544784</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045071314232187</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039946303848274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007208297658968</v>
+        <v>0.9988555154893417</v>
       </c>
       <c r="D11">
-        <v>1.029575685609562</v>
+        <v>1.025460388272698</v>
       </c>
       <c r="E11">
-        <v>1.023712687776313</v>
+        <v>1.017857409708207</v>
       </c>
       <c r="F11">
-        <v>1.033925857918257</v>
+        <v>1.031023328181804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049902133556797</v>
+        <v>1.052690524494887</v>
       </c>
       <c r="J11">
-        <v>1.036284247497908</v>
+        <v>1.028275983985352</v>
       </c>
       <c r="K11">
-        <v>1.043960600113326</v>
+        <v>1.039917617881647</v>
       </c>
       <c r="L11">
-        <v>1.038200856654386</v>
+        <v>1.032450239960469</v>
       </c>
       <c r="M11">
-        <v>1.0482351397139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.045382982030051</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044973990098765</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039364652932379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00611292129655</v>
+        <v>0.9981363000741633</v>
       </c>
       <c r="D12">
-        <v>1.028750628847202</v>
+        <v>1.025053637238774</v>
       </c>
       <c r="E12">
-        <v>1.022833569673614</v>
+        <v>1.017438028037309</v>
       </c>
       <c r="F12">
-        <v>1.032997453943131</v>
+        <v>1.030807838819692</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0495623989172</v>
+        <v>1.052596911969337</v>
       </c>
       <c r="J12">
-        <v>1.035660805724782</v>
+        <v>1.028019745000347</v>
       </c>
       <c r="K12">
-        <v>1.04334699041745</v>
+        <v>1.039716090739064</v>
       </c>
       <c r="L12">
-        <v>1.037536010317596</v>
+        <v>1.032238598694409</v>
       </c>
       <c r="M12">
-        <v>1.047518650929969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.045367689494922</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045286094633997</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039222168278179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006348384463167</v>
+        <v>0.9986068104654692</v>
       </c>
       <c r="D13">
-        <v>1.028927943624877</v>
+        <v>1.025422350451398</v>
       </c>
       <c r="E13">
-        <v>1.023022486753433</v>
+        <v>1.017889110476246</v>
       </c>
       <c r="F13">
-        <v>1.033196966917763</v>
+        <v>1.031371578423494</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049635483579158</v>
+        <v>1.052781839958117</v>
       </c>
       <c r="J13">
-        <v>1.035794830496295</v>
+        <v>1.028377412636986</v>
       </c>
       <c r="K13">
-        <v>1.043478904188133</v>
+        <v>1.040035729160142</v>
       </c>
       <c r="L13">
-        <v>1.037678916315812</v>
+        <v>1.032638514051147</v>
       </c>
       <c r="M13">
-        <v>1.047672657359973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.045879354701586</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045965677066164</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039445682552787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007117978686025</v>
+        <v>0.9994759980879309</v>
       </c>
       <c r="D14">
-        <v>1.029507637752958</v>
+        <v>1.026033114259822</v>
       </c>
       <c r="E14">
-        <v>1.023640173847637</v>
+        <v>1.018599553293903</v>
       </c>
       <c r="F14">
-        <v>1.033849280749428</v>
+        <v>1.032119851218863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049874145623179</v>
+        <v>1.053037795176227</v>
       </c>
       <c r="J14">
-        <v>1.036232845930664</v>
+        <v>1.028906277651123</v>
       </c>
       <c r="K14">
-        <v>1.043910010389371</v>
+        <v>1.040496582637148</v>
       </c>
       <c r="L14">
-        <v>1.038146032479085</v>
+        <v>1.033195551955789</v>
       </c>
       <c r="M14">
-        <v>1.048176057076808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.046476641564226</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046610231632688</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039772933640606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007590692400621</v>
+        <v>0.9999522240447649</v>
       </c>
       <c r="D15">
-        <v>1.029863824144739</v>
+        <v>1.026358077590627</v>
       </c>
       <c r="E15">
-        <v>1.024019751879274</v>
+        <v>1.018969952369989</v>
       </c>
       <c r="F15">
-        <v>1.034250123825483</v>
+        <v>1.032483556554932</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050020579611162</v>
+        <v>1.053165036171096</v>
       </c>
       <c r="J15">
-        <v>1.03650186418227</v>
+        <v>1.029175889768436</v>
       </c>
       <c r="K15">
-        <v>1.044174777260759</v>
+        <v>1.04073020318678</v>
       </c>
       <c r="L15">
-        <v>1.038432981296672</v>
+        <v>1.033472784432841</v>
       </c>
       <c r="M15">
-        <v>1.048485294503665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.046749148192143</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046862976443298</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039943944409655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010320206767561</v>
+        <v>1.00248470705099</v>
       </c>
       <c r="D16">
-        <v>1.031922218066044</v>
+        <v>1.028039435293028</v>
       </c>
       <c r="E16">
-        <v>1.026214050667853</v>
+        <v>1.020866967756332</v>
       </c>
       <c r="F16">
-        <v>1.03656714745399</v>
+        <v>1.034236525654686</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050863632925663</v>
+        <v>1.053780976421259</v>
       </c>
       <c r="J16">
-        <v>1.03805476975773</v>
+        <v>1.030523617721957</v>
       </c>
       <c r="K16">
-        <v>1.045703015617056</v>
+        <v>1.041884987549405</v>
       </c>
       <c r="L16">
-        <v>1.040090263967188</v>
+        <v>1.034833811240893</v>
       </c>
       <c r="M16">
-        <v>1.050271299180186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.047979024164245</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047796551552215</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040763554156407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012013497192639</v>
+        <v>1.003973032916168</v>
       </c>
       <c r="D17">
-        <v>1.033200638249041</v>
+        <v>1.029009709650436</v>
       </c>
       <c r="E17">
-        <v>1.027577522183557</v>
+        <v>1.021950918468359</v>
       </c>
       <c r="F17">
-        <v>1.038006696252638</v>
+        <v>1.035185936866449</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051384425686428</v>
+        <v>1.054115654726831</v>
       </c>
       <c r="J17">
-        <v>1.039017715834748</v>
+        <v>1.031279384865925</v>
       </c>
       <c r="K17">
-        <v>1.04665054826643</v>
+        <v>1.042527519317838</v>
       </c>
       <c r="L17">
-        <v>1.041118698743139</v>
+        <v>1.035584712311074</v>
       </c>
       <c r="M17">
-        <v>1.051379605477124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.048603928044157</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048162166747291</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041220412526225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012994526557916</v>
+        <v>1.004690027667662</v>
       </c>
       <c r="D18">
-        <v>1.033941818035927</v>
+        <v>1.029439473933321</v>
       </c>
       <c r="E18">
-        <v>1.028368246205652</v>
+        <v>1.022413889461533</v>
       </c>
       <c r="F18">
-        <v>1.038841475494282</v>
+        <v>1.035497640189383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051685346834945</v>
+        <v>1.054230713286816</v>
       </c>
       <c r="J18">
-        <v>1.039575448031727</v>
+        <v>1.031577014856316</v>
       </c>
       <c r="K18">
-        <v>1.047199308218878</v>
+        <v>1.042768682056221</v>
       </c>
       <c r="L18">
-        <v>1.041714636563632</v>
+        <v>1.035856629493429</v>
       </c>
       <c r="M18">
-        <v>1.052021822343736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.04873053325701</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048026060824197</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041379361090261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013327920960831</v>
+        <v>1.004713761601952</v>
       </c>
       <c r="D19">
-        <v>1.034193786606457</v>
+        <v>1.029388135672841</v>
       </c>
       <c r="E19">
-        <v>1.028637097710619</v>
+        <v>1.022316771635625</v>
       </c>
       <c r="F19">
-        <v>1.039125295138749</v>
+        <v>1.035233664013043</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051787474298667</v>
+        <v>1.054153573770289</v>
       </c>
       <c r="J19">
-        <v>1.039764959796939</v>
+        <v>1.031466270584033</v>
       </c>
       <c r="K19">
-        <v>1.047385763449598</v>
+        <v>1.042656235701307</v>
       </c>
       <c r="L19">
-        <v>1.041917176817863</v>
+        <v>1.035698555539089</v>
       </c>
       <c r="M19">
-        <v>1.052240090733733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.048409287839202</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047448899789849</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041306211088962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011832513306503</v>
+        <v>1.002788071990341</v>
       </c>
       <c r="D20">
-        <v>1.033063943554676</v>
+        <v>1.027980384376321</v>
       </c>
       <c r="E20">
-        <v>1.027431709132838</v>
+        <v>1.020655303766078</v>
       </c>
       <c r="F20">
-        <v>1.037852754011835</v>
+        <v>1.033386063620596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051328845205177</v>
+        <v>1.053538569170451</v>
       </c>
       <c r="J20">
-        <v>1.038914809937681</v>
+        <v>1.030211939595815</v>
       </c>
       <c r="K20">
-        <v>1.046549294133249</v>
+        <v>1.041548450537738</v>
       </c>
       <c r="L20">
-        <v>1.041008765820355</v>
+        <v>1.034344424407162</v>
       </c>
       <c r="M20">
-        <v>1.051261135149392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.046866208113788</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.045704364646679</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040526870376733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006891657192569</v>
+        <v>0.9980671752439249</v>
       </c>
       <c r="D21">
-        <v>1.029337137483126</v>
+        <v>1.02482164384808</v>
       </c>
       <c r="E21">
-        <v>1.023458489193859</v>
+        <v>1.017069321632484</v>
       </c>
       <c r="F21">
-        <v>1.033657413929914</v>
+        <v>1.030011589451984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049803993695848</v>
+        <v>1.05235948757556</v>
       </c>
       <c r="J21">
-        <v>1.03610404041998</v>
+        <v>1.027645929931071</v>
       </c>
       <c r="K21">
-        <v>1.043783238283434</v>
+        <v>1.039347542682015</v>
       </c>
       <c r="L21">
-        <v>1.038008657403003</v>
+        <v>1.031734369240861</v>
       </c>
       <c r="M21">
-        <v>1.048028011366219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.044445849122587</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043748291604465</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038973975737151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003721860396981</v>
+        <v>0.9950580148639017</v>
       </c>
       <c r="D22">
-        <v>1.026951301463602</v>
+        <v>1.02281416387744</v>
       </c>
       <c r="E22">
-        <v>1.020916994157608</v>
+        <v>1.014800233485453</v>
       </c>
       <c r="F22">
-        <v>1.030973239892305</v>
+        <v>1.027891435703676</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048818586647313</v>
+        <v>1.051600046498093</v>
       </c>
       <c r="J22">
-        <v>1.034299561887368</v>
+        <v>1.026016659544019</v>
       </c>
       <c r="K22">
-        <v>1.042007110112877</v>
+        <v>1.037946822577613</v>
       </c>
       <c r="L22">
-        <v>1.036085166039671</v>
+        <v>1.030084088121244</v>
       </c>
       <c r="M22">
-        <v>1.04595510819394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.0429298931539</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042548518483887</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037970186032326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005408403022998</v>
+        <v>0.9966498379098031</v>
       </c>
       <c r="D23">
-        <v>1.028220225505028</v>
+        <v>1.023871381337291</v>
       </c>
       <c r="E23">
-        <v>1.022268512353699</v>
+        <v>1.01599831306419</v>
       </c>
       <c r="F23">
-        <v>1.032400688808074</v>
+        <v>1.029011137842247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049343548496022</v>
+        <v>1.0519998737804</v>
       </c>
       <c r="J23">
-        <v>1.035259767888245</v>
+        <v>1.026874851828697</v>
       </c>
       <c r="K23">
-        <v>1.042952260856949</v>
+        <v>1.038682107392455</v>
       </c>
       <c r="L23">
-        <v>1.037108461549119</v>
+        <v>1.030953734471267</v>
       </c>
       <c r="M23">
-        <v>1.047057891421262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.043728954807869</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043180920141719</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038480474200492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011914312612649</v>
+        <v>1.002809743986454</v>
       </c>
       <c r="D24">
-        <v>1.033125723891477</v>
+        <v>1.027977777050827</v>
       </c>
       <c r="E24">
-        <v>1.027497609861056</v>
+        <v>1.020653025165908</v>
       </c>
       <c r="F24">
-        <v>1.037922328956587</v>
+        <v>1.03336081144097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051353968424383</v>
+        <v>1.053526989541913</v>
       </c>
       <c r="J24">
-        <v>1.038961320834463</v>
+        <v>1.030200062479099</v>
       </c>
       <c r="K24">
-        <v>1.046595058613734</v>
+        <v>1.041530761819426</v>
       </c>
       <c r="L24">
-        <v>1.041058451905147</v>
+        <v>1.034326904741758</v>
       </c>
       <c r="M24">
-        <v>1.051314679872577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.046826351716558</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045632288931542</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040487128720754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019205191273016</v>
+        <v>1.009720967100843</v>
       </c>
       <c r="D25">
-        <v>1.03864264921393</v>
+        <v>1.032599507182666</v>
       </c>
       <c r="E25">
-        <v>1.033387578409337</v>
+        <v>1.025906219023191</v>
       </c>
       <c r="F25">
-        <v>1.044139314006492</v>
+        <v>1.03826924421456</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053575658178818</v>
+        <v>1.055187169176327</v>
       </c>
       <c r="J25">
-        <v>1.043103070565247</v>
+        <v>1.033925552942186</v>
       </c>
       <c r="K25">
-        <v>1.050669306379442</v>
+        <v>1.044711990140043</v>
       </c>
       <c r="L25">
-        <v>1.045488797011186</v>
+        <v>1.038115257691761</v>
       </c>
       <c r="M25">
-        <v>1.056088995289173</v>
+        <v>1.050301167945012</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048382348464904</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042733547336854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015031071556701</v>
+        <v>1.01369713085921</v>
       </c>
       <c r="D2">
-        <v>1.036146599015825</v>
+        <v>1.034309698135772</v>
       </c>
       <c r="E2">
-        <v>1.029961122572642</v>
+        <v>1.028780144760695</v>
       </c>
       <c r="F2">
-        <v>1.042057409754918</v>
+        <v>1.040789402342279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05640861698085</v>
+        <v>1.055456954993235</v>
       </c>
       <c r="J2">
-        <v>1.036771315757535</v>
+        <v>1.035475741192723</v>
       </c>
       <c r="K2">
-        <v>1.04712431585377</v>
+        <v>1.045310874841552</v>
       </c>
       <c r="L2">
-        <v>1.041018254149993</v>
+        <v>1.039852574683572</v>
       </c>
       <c r="M2">
-        <v>1.052960337131061</v>
+        <v>1.051708284516642</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05048687691748</v>
+        <v>1.049495974046573</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044391241143543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043117709199775</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024067486089578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018806392057024</v>
+        <v>1.017356154500113</v>
       </c>
       <c r="D3">
-        <v>1.038680500818537</v>
+        <v>1.036683896088783</v>
       </c>
       <c r="E3">
-        <v>1.032858769164504</v>
+        <v>1.031571705917052</v>
       </c>
       <c r="F3">
-        <v>1.044763607487776</v>
+        <v>1.043385907757575</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057255950180794</v>
+        <v>1.056220644593952</v>
       </c>
       <c r="J3">
-        <v>1.038797182250777</v>
+        <v>1.037384601425498</v>
       </c>
       <c r="K3">
-        <v>1.04884126935668</v>
+        <v>1.046867966741367</v>
       </c>
       <c r="L3">
-        <v>1.043087793958353</v>
+        <v>1.041815949555394</v>
       </c>
       <c r="M3">
-        <v>1.054854058788082</v>
+        <v>1.053492195783714</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05198560874504</v>
+        <v>1.050907801534885</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04560261399555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044215771867588</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024382504408628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02120774111753</v>
+        <v>1.019684236340471</v>
       </c>
       <c r="D4">
-        <v>1.04029431124898</v>
+        <v>1.038196606539763</v>
       </c>
       <c r="E4">
-        <v>1.034707434392263</v>
+        <v>1.03335344377645</v>
       </c>
       <c r="F4">
-        <v>1.046489783261839</v>
+        <v>1.045042753222144</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057782505701418</v>
+        <v>1.056694139932155</v>
       </c>
       <c r="J4">
-        <v>1.040084080125111</v>
+        <v>1.038597476977635</v>
       </c>
       <c r="K4">
-        <v>1.049929576726868</v>
+        <v>1.04785489339132</v>
       </c>
       <c r="L4">
-        <v>1.044404267585097</v>
+        <v>1.043065321307661</v>
       </c>
       <c r="M4">
-        <v>1.056057716924477</v>
+        <v>1.054626325432047</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052938207986496</v>
+        <v>1.051805375854126</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046373016575019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044914573811799</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024579800882899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022210642809491</v>
+        <v>1.02065672488284</v>
       </c>
       <c r="D5">
-        <v>1.040970391287625</v>
+        <v>1.038830660819187</v>
       </c>
       <c r="E5">
-        <v>1.035481264873895</v>
+        <v>1.03409946820061</v>
       </c>
       <c r="F5">
-        <v>1.047212272449938</v>
+        <v>1.045736430621434</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058000631415366</v>
+        <v>1.056890182476766</v>
       </c>
       <c r="J5">
-        <v>1.040622444771025</v>
+        <v>1.039105048507427</v>
       </c>
       <c r="K5">
-        <v>1.050385410253408</v>
+        <v>1.048268543694851</v>
       </c>
       <c r="L5">
-        <v>1.044955170022034</v>
+        <v>1.043588317759836</v>
       </c>
       <c r="M5">
-        <v>1.056561246977519</v>
+        <v>1.055100933786488</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053336711433628</v>
+        <v>1.052180990679028</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046702430300266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045214873569974</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024662358491256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022382158957787</v>
+        <v>1.020823080352695</v>
       </c>
       <c r="D6">
-        <v>1.041088015871774</v>
+        <v>1.03894120922203</v>
       </c>
       <c r="E6">
-        <v>1.035614224034912</v>
+        <v>1.034227701502848</v>
       </c>
       <c r="F6">
-        <v>1.047336431197246</v>
+        <v>1.045855719022299</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058039263344468</v>
+        <v>1.056925093917747</v>
       </c>
       <c r="J6">
-        <v>1.040716110649772</v>
+        <v>1.039193487886964</v>
       </c>
       <c r="K6">
-        <v>1.050466048345711</v>
+        <v>1.048342077215995</v>
       </c>
       <c r="L6">
-        <v>1.045050710264771</v>
+        <v>1.043679114574331</v>
       </c>
       <c r="M6">
-        <v>1.056648650488549</v>
+        <v>1.055183447431187</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05340588424553</v>
+        <v>1.052246293657422</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046768113232944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045276403524434</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024677536918595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021231063802262</v>
+        <v>1.019706923109299</v>
       </c>
       <c r="D7">
-        <v>1.04031529649687</v>
+        <v>1.038216887314805</v>
       </c>
       <c r="E7">
-        <v>1.034726885049822</v>
+        <v>1.033372294682025</v>
       </c>
       <c r="F7">
-        <v>1.046507994105711</v>
+        <v>1.045060422435767</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057791611277161</v>
+        <v>1.056702873592746</v>
       </c>
       <c r="J7">
-        <v>1.040100941070183</v>
+        <v>1.038613701736993</v>
       </c>
       <c r="K7">
-        <v>1.049947485721131</v>
+        <v>1.047872096861465</v>
       </c>
       <c r="L7">
-        <v>1.044420635458835</v>
+        <v>1.043081090394767</v>
       </c>
       <c r="M7">
-        <v>1.056072907129556</v>
+        <v>1.054640974007899</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052950229812404</v>
+        <v>1.05181696904151</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046405613488173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044948674642707</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024584678707169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016328004313864</v>
+        <v>1.014953995822159</v>
       </c>
       <c r="D8">
-        <v>1.037023016428917</v>
+        <v>1.035131454393526</v>
       </c>
       <c r="E8">
-        <v>1.030957230297724</v>
+        <v>1.02973969735013</v>
       </c>
       <c r="F8">
-        <v>1.042987740310787</v>
+        <v>1.041682076882418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056707081545949</v>
+        <v>1.055726811261661</v>
       </c>
       <c r="J8">
-        <v>1.037472939998926</v>
+        <v>1.036137131853941</v>
       </c>
       <c r="K8">
-        <v>1.047723795518926</v>
+        <v>1.04585568076267</v>
       </c>
       <c r="L8">
-        <v>1.041733578778748</v>
+        <v>1.040531348040669</v>
       </c>
       <c r="M8">
-        <v>1.053615274675761</v>
+        <v>1.052325555172376</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051005208839141</v>
+        <v>1.049984496225112</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044837837904348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043527920185622</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024179962922077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007340625769064</v>
+        <v>1.006247866075537</v>
       </c>
       <c r="D9">
-        <v>1.030998522408988</v>
+        <v>1.029489810827433</v>
       </c>
       <c r="E9">
-        <v>1.024090804120327</v>
+        <v>1.023129150907988</v>
       </c>
       <c r="F9">
-        <v>1.036573308391588</v>
+        <v>1.035531391478877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054616791712823</v>
+        <v>1.053836405103457</v>
       </c>
       <c r="J9">
-        <v>1.032636804220408</v>
+        <v>1.031581908943335</v>
       </c>
       <c r="K9">
-        <v>1.043607922123663</v>
+        <v>1.042121892587884</v>
       </c>
       <c r="L9">
-        <v>1.036804752968993</v>
+        <v>1.035857797284407</v>
       </c>
       <c r="M9">
-        <v>1.049099624347659</v>
+        <v>1.048073149229443</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047431416909986</v>
+        <v>1.046619037944728</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041924531867385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040884490163857</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023409625046853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001161675512603</v>
+        <v>1.000264082088608</v>
       </c>
       <c r="D10">
-        <v>1.026886244752873</v>
+        <v>1.025641366498249</v>
       </c>
       <c r="E10">
-        <v>1.01942450183009</v>
+        <v>1.018639371909468</v>
       </c>
       <c r="F10">
-        <v>1.032242533540442</v>
+        <v>1.031382762583835</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053134308747542</v>
+        <v>1.052491099833067</v>
       </c>
       <c r="J10">
-        <v>1.02932927903802</v>
+        <v>1.028467226335228</v>
       </c>
       <c r="K10">
-        <v>1.040786454757475</v>
+        <v>1.039562593448348</v>
       </c>
       <c r="L10">
-        <v>1.033451679489306</v>
+        <v>1.03268004903836</v>
       </c>
       <c r="M10">
-        <v>1.046053059544784</v>
+        <v>1.045207603471365</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045071314232187</v>
+        <v>1.044402237425589</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039946303848274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039093314674999</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022874519221158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9988555154893417</v>
+        <v>0.9980079767428971</v>
       </c>
       <c r="D11">
-        <v>1.025460388272698</v>
+        <v>1.024294851341428</v>
       </c>
       <c r="E11">
-        <v>1.017857409708207</v>
+        <v>1.017115681925568</v>
       </c>
       <c r="F11">
-        <v>1.031023328181804</v>
+        <v>1.030215546398995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052690524494887</v>
+        <v>1.052088654917701</v>
       </c>
       <c r="J11">
-        <v>1.028275983985352</v>
+        <v>1.027463861664649</v>
       </c>
       <c r="K11">
-        <v>1.039917617881647</v>
+        <v>1.038772699055862</v>
       </c>
       <c r="L11">
-        <v>1.032450239960469</v>
+        <v>1.03172188213172</v>
       </c>
       <c r="M11">
-        <v>1.045382982030051</v>
+        <v>1.044589284307256</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044973990098765</v>
+        <v>1.044346185014948</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039364652932379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038570707664993</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022744240904614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9981363000741633</v>
+        <v>0.9972948240782555</v>
       </c>
       <c r="D12">
-        <v>1.025053637238774</v>
+        <v>1.023904981650325</v>
       </c>
       <c r="E12">
-        <v>1.017438028037309</v>
+        <v>1.016700467488863</v>
       </c>
       <c r="F12">
-        <v>1.030807838819692</v>
+        <v>1.0300098398632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052596911969337</v>
+        <v>1.052003939665173</v>
       </c>
       <c r="J12">
-        <v>1.028019745000347</v>
+        <v>1.027214114706697</v>
       </c>
       <c r="K12">
-        <v>1.039716090739064</v>
+        <v>1.03858809622799</v>
       </c>
       <c r="L12">
-        <v>1.032238598694409</v>
+        <v>1.031514557732656</v>
       </c>
       <c r="M12">
-        <v>1.045367689494922</v>
+        <v>1.044583830778545</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045286094633997</v>
+        <v>1.044666279254221</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039222168278179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038440191365583</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022730388729677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9986068104654692</v>
+        <v>0.9977371340077386</v>
       </c>
       <c r="D13">
-        <v>1.025422350451398</v>
+        <v>1.024242751919392</v>
       </c>
       <c r="E13">
-        <v>1.017889110476246</v>
+        <v>1.017125166417198</v>
       </c>
       <c r="F13">
-        <v>1.031371578423494</v>
+        <v>1.030550907965823</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052781839958117</v>
+        <v>1.052172965120333</v>
       </c>
       <c r="J13">
-        <v>1.028377412636986</v>
+        <v>1.027544599495097</v>
       </c>
       <c r="K13">
-        <v>1.040035729160142</v>
+        <v>1.038877258547156</v>
       </c>
       <c r="L13">
-        <v>1.032638514051147</v>
+        <v>1.031888510730022</v>
       </c>
       <c r="M13">
-        <v>1.045879354701586</v>
+        <v>1.045073157639424</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045965677066164</v>
+        <v>1.045328356713184</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039445682552787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038641911024203</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022812542510183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9994759980879309</v>
+        <v>0.9985714987291546</v>
       </c>
       <c r="D14">
-        <v>1.026033114259822</v>
+        <v>1.02481048887548</v>
       </c>
       <c r="E14">
-        <v>1.018599553293903</v>
+        <v>1.017803732417564</v>
       </c>
       <c r="F14">
-        <v>1.032119851218863</v>
+        <v>1.031268926483129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053037795176227</v>
+        <v>1.0524067038974</v>
       </c>
       <c r="J14">
-        <v>1.028906277651123</v>
+        <v>1.028039565195478</v>
       </c>
       <c r="K14">
-        <v>1.040496582637148</v>
+        <v>1.039295583625799</v>
       </c>
       <c r="L14">
-        <v>1.033195551955789</v>
+        <v>1.032414068608007</v>
       </c>
       <c r="M14">
-        <v>1.046476641564226</v>
+        <v>1.045640532357601</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046610231632688</v>
+        <v>1.045949353408545</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039772933640606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038939227124861</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022913746289873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9999522240447649</v>
+        <v>0.9990312971337113</v>
       </c>
       <c r="D15">
-        <v>1.026358077590627</v>
+        <v>1.025114028292284</v>
       </c>
       <c r="E15">
-        <v>1.018969952369989</v>
+        <v>1.018159252134931</v>
       </c>
       <c r="F15">
-        <v>1.032483556554932</v>
+        <v>1.031617782935316</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053165036171096</v>
+        <v>1.052522854152504</v>
       </c>
       <c r="J15">
-        <v>1.029175889768436</v>
+        <v>1.028293097689631</v>
       </c>
       <c r="K15">
-        <v>1.04073020318678</v>
+        <v>1.039507991920253</v>
       </c>
       <c r="L15">
-        <v>1.033472784432841</v>
+        <v>1.032676576637848</v>
       </c>
       <c r="M15">
-        <v>1.046749148192143</v>
+        <v>1.045898332737801</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046862976443298</v>
+        <v>1.046190491669544</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039943944409655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039095810785752</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022961662708391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00248470705099</v>
+        <v>1.001485790146381</v>
       </c>
       <c r="D16">
-        <v>1.028039435293028</v>
+        <v>1.026688387681746</v>
       </c>
       <c r="E16">
-        <v>1.020866967756332</v>
+        <v>1.019986267691906</v>
       </c>
       <c r="F16">
-        <v>1.034236525654686</v>
+        <v>1.033297379733169</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053780976421259</v>
+        <v>1.053083240798508</v>
       </c>
       <c r="J16">
-        <v>1.030523617721957</v>
+        <v>1.029563985370864</v>
       </c>
       <c r="K16">
-        <v>1.041884987549405</v>
+        <v>1.04055662000748</v>
       </c>
       <c r="L16">
-        <v>1.034833811240893</v>
+        <v>1.033968156325787</v>
       </c>
       <c r="M16">
-        <v>1.047979024164245</v>
+        <v>1.047055393371074</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047796551552215</v>
+        <v>1.047066492755622</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040763554156407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039840662042308</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02318139450219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003973032916168</v>
+        <v>1.002932513616434</v>
       </c>
       <c r="D17">
-        <v>1.029009709650436</v>
+        <v>1.027599216406934</v>
       </c>
       <c r="E17">
-        <v>1.021950918468359</v>
+        <v>1.021033104690824</v>
       </c>
       <c r="F17">
-        <v>1.035185936866449</v>
+        <v>1.034206331381084</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054115654726831</v>
+        <v>1.05338696202188</v>
       </c>
       <c r="J17">
-        <v>1.031279384865925</v>
+        <v>1.030278464224895</v>
       </c>
       <c r="K17">
-        <v>1.042527519317838</v>
+        <v>1.041140038389404</v>
       </c>
       <c r="L17">
-        <v>1.035584712311074</v>
+        <v>1.034682130995082</v>
       </c>
       <c r="M17">
-        <v>1.048603928044157</v>
+        <v>1.047640052617582</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048162166747291</v>
+        <v>1.047400222374029</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041220412526225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040255971848169</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02329584673655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004690027667662</v>
+        <v>1.003636851384409</v>
       </c>
       <c r="D18">
-        <v>1.029439473933321</v>
+        <v>1.028006460093684</v>
       </c>
       <c r="E18">
-        <v>1.022413889461533</v>
+        <v>1.021485335976713</v>
       </c>
       <c r="F18">
-        <v>1.035497640189383</v>
+        <v>1.034503383792641</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054230713286816</v>
+        <v>1.053490183070286</v>
       </c>
       <c r="J18">
-        <v>1.031577014856316</v>
+        <v>1.030563163453834</v>
       </c>
       <c r="K18">
-        <v>1.042768682056221</v>
+        <v>1.041358663791</v>
       </c>
       <c r="L18">
-        <v>1.035856629493429</v>
+        <v>1.034943231399305</v>
       </c>
       <c r="M18">
-        <v>1.04873053325701</v>
+        <v>1.047751984851263</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048026060824197</v>
+        <v>1.047252357954771</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041379361090261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040397846429571</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023324329055844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004713761601952</v>
+        <v>1.003674921079508</v>
       </c>
       <c r="D19">
-        <v>1.029388135672841</v>
+        <v>1.027967069228841</v>
       </c>
       <c r="E19">
-        <v>1.022316771635625</v>
+        <v>1.021402134752265</v>
       </c>
       <c r="F19">
-        <v>1.035233664013043</v>
+        <v>1.034248999008525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054153573770289</v>
+        <v>1.053419080461763</v>
       </c>
       <c r="J19">
-        <v>1.031466270584033</v>
+        <v>1.030465989729597</v>
       </c>
       <c r="K19">
-        <v>1.042656235701307</v>
+        <v>1.041257854252083</v>
       </c>
       <c r="L19">
-        <v>1.035698555539089</v>
+        <v>1.034798770628537</v>
       </c>
       <c r="M19">
-        <v>1.048409287839202</v>
+        <v>1.047440106528594</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047448899789849</v>
+        <v>1.046682356082744</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041306211088962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040333550351713</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023278674258734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002788071990341</v>
+        <v>1.001838389818402</v>
       </c>
       <c r="D20">
-        <v>1.027980384376321</v>
+        <v>1.026666118474157</v>
       </c>
       <c r="E20">
-        <v>1.020655303766078</v>
+        <v>1.019823052619649</v>
       </c>
       <c r="F20">
-        <v>1.033386063620596</v>
+        <v>1.032478067161223</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053538569170451</v>
+        <v>1.052859317602409</v>
       </c>
       <c r="J20">
-        <v>1.030211939595815</v>
+        <v>1.029298628099287</v>
       </c>
       <c r="K20">
-        <v>1.041548450537738</v>
+        <v>1.040255740690221</v>
       </c>
       <c r="L20">
-        <v>1.034344424407162</v>
+        <v>1.033526068826</v>
       </c>
       <c r="M20">
-        <v>1.046866208113788</v>
+        <v>1.045972897330719</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045704364646679</v>
+        <v>1.044997408262224</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040526870376733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039629315901177</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023023955164886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9980671752439249</v>
+        <v>0.9972730522785974</v>
       </c>
       <c r="D21">
-        <v>1.02482164384808</v>
+        <v>1.023713920439774</v>
       </c>
       <c r="E21">
-        <v>1.017069321632484</v>
+        <v>1.016377702205613</v>
       </c>
       <c r="F21">
-        <v>1.030011589451984</v>
+        <v>1.029247075323057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.05235948757556</v>
+        <v>1.051787376717792</v>
       </c>
       <c r="J21">
-        <v>1.027645929931071</v>
+        <v>1.026885230160575</v>
       </c>
       <c r="K21">
-        <v>1.039347542682015</v>
+        <v>1.038259534606178</v>
       </c>
       <c r="L21">
-        <v>1.031734369240861</v>
+        <v>1.03105529807216</v>
       </c>
       <c r="M21">
-        <v>1.044445849122587</v>
+        <v>1.043694758837081</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043748291604465</v>
+        <v>1.04315385642328</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038973975737151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038221487898301</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022594566976796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950580148639017</v>
+        <v>0.9943630118406246</v>
       </c>
       <c r="D22">
-        <v>1.02281416387744</v>
+        <v>1.021837495511671</v>
       </c>
       <c r="E22">
-        <v>1.014800233485453</v>
+        <v>1.014197897355964</v>
       </c>
       <c r="F22">
-        <v>1.027891435703676</v>
+        <v>1.027218128507321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051600046498093</v>
+        <v>1.05109580581793</v>
       </c>
       <c r="J22">
-        <v>1.026016659544019</v>
+        <v>1.025352627354909</v>
       </c>
       <c r="K22">
-        <v>1.037946822577613</v>
+        <v>1.036988414998695</v>
       </c>
       <c r="L22">
-        <v>1.030084088121244</v>
+        <v>1.029493242373841</v>
       </c>
       <c r="M22">
-        <v>1.0429298931539</v>
+        <v>1.042269008366204</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042548518483887</v>
+        <v>1.042025473777951</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037970186032326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037308028612518</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022319561908046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9966498379098031</v>
+        <v>0.995902389497464</v>
       </c>
       <c r="D23">
-        <v>1.023871381337291</v>
+        <v>1.022825185962626</v>
       </c>
       <c r="E23">
-        <v>1.01599831306419</v>
+        <v>1.015348794510178</v>
       </c>
       <c r="F23">
-        <v>1.029011137842247</v>
+        <v>1.028289524092769</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.0519998737804</v>
+        <v>1.051459643348007</v>
       </c>
       <c r="J23">
-        <v>1.026874851828697</v>
+        <v>1.026159725107217</v>
       </c>
       <c r="K23">
-        <v>1.038682107392455</v>
+        <v>1.037654972500123</v>
       </c>
       <c r="L23">
-        <v>1.030953734471267</v>
+        <v>1.030316283815066</v>
       </c>
       <c r="M23">
-        <v>1.043728954807869</v>
+        <v>1.043020312514244</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043180920141719</v>
+        <v>1.042620079139012</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038480474200492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037768775140059</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022462827603864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002809743986454</v>
+        <v>1.001861787801821</v>
       </c>
       <c r="D24">
-        <v>1.027977777050827</v>
+        <v>1.02666432842077</v>
       </c>
       <c r="E24">
-        <v>1.020653025165908</v>
+        <v>1.01982252726697</v>
       </c>
       <c r="F24">
-        <v>1.03336081144097</v>
+        <v>1.032453785340541</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053526989541913</v>
+        <v>1.052848149695195</v>
       </c>
       <c r="J24">
-        <v>1.030200062479099</v>
+        <v>1.029288357610788</v>
       </c>
       <c r="K24">
-        <v>1.041530761819426</v>
+        <v>1.040238828400295</v>
       </c>
       <c r="L24">
-        <v>1.034326904741758</v>
+        <v>1.033510255410052</v>
       </c>
       <c r="M24">
-        <v>1.046826351716558</v>
+        <v>1.045933977764149</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045632288931542</v>
+        <v>1.044926039422307</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040487128720754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039587442111957</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023014955238787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009720967100843</v>
+        <v>1.008552881544639</v>
       </c>
       <c r="D25">
-        <v>1.032599507182666</v>
+        <v>1.030989197770861</v>
       </c>
       <c r="E25">
-        <v>1.025906219023191</v>
+        <v>1.024876122488789</v>
       </c>
       <c r="F25">
-        <v>1.03826924421456</v>
+        <v>1.037157073480228</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055187169176327</v>
+        <v>1.054353837337548</v>
       </c>
       <c r="J25">
-        <v>1.033925552942186</v>
+        <v>1.03279579609091</v>
       </c>
       <c r="K25">
-        <v>1.044711990140043</v>
+        <v>1.04312476561239</v>
       </c>
       <c r="L25">
-        <v>1.038115257691761</v>
+        <v>1.03710016312245</v>
       </c>
       <c r="M25">
-        <v>1.050301167945012</v>
+        <v>1.049204711851293</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048382348464904</v>
+        <v>1.047514585828733</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042733547336854</v>
+        <v>1.041624766300094</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02362084432446</v>
       </c>
     </row>
   </sheetData>
